--- a/SensitivityAnalisys/CF_G_2023_3_NFIIUUP.xlsx
+++ b/SensitivityAnalisys/CF_G_2023_3_NFIIUUP.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD629B0B-79B7-44B3-AF45-1EC2A42D8B58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F866C2-0979-4FBF-9B4E-850807AE4915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="46296" windowHeight="25416" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="54300" yWindow="0" windowWidth="25800" windowHeight="20985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -135,9 +135,6 @@
     <t>Values11</t>
   </si>
   <si>
-    <t>GIC1</t>
-  </si>
-  <si>
     <t>PR</t>
   </si>
   <si>
@@ -199,6 +196,9 @@
   </si>
   <si>
     <t>NFIIUUP10pct</t>
+  </si>
+  <si>
+    <t>GIC2</t>
   </si>
 </sst>
 </file>
@@ -542,7 +542,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>GIC1</c:v>
+                  <c:v>GIC2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>PR</c:v>
@@ -622,40 +622,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>77</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>69.3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>62.37</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>56.132999999999996</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50.5197</c:v>
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72.899999999999991</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65.61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>59.048999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45.467730000000003</c:v>
+                  <c:v>53.144100000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40.920957000000001</c:v>
+                  <c:v>47.829690000000006</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36.8288613</c:v>
+                  <c:v>43.046721000000005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33.14597517</c:v>
+                  <c:v>38.742048900000007</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29.831377653000001</c:v>
+                  <c:v>34.867844010000006</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>26.8482398877</c:v>
+                  <c:v>31.381059609000005</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24.163415898930001</c:v>
+                  <c:v>28.242953648100009</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -676,7 +676,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>GIC1</c:v>
+                  <c:v>GIC2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>NIC</c:v>
@@ -756,40 +756,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-5</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-5</c:v>
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-5</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-5</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-5</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-5</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-5</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-5</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-5</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -810,7 +810,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>GIC1</c:v>
+                  <c:v>GIC2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>ICO</c:v>
@@ -890,40 +890,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-1.24</c:v>
+                  <c:v>-1.488</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.24</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-1.24</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-1.24</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1.24</c:v>
+                  <c:v>-1.488</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.488</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.488</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.488</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.24</c:v>
+                  <c:v>-1.488</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.24</c:v>
+                  <c:v>-1.488</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.24</c:v>
+                  <c:v>-1.488</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.24</c:v>
+                  <c:v>-1.488</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.24</c:v>
+                  <c:v>-1.488</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.24</c:v>
+                  <c:v>-1.488</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.24</c:v>
+                  <c:v>-1.488</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -944,7 +944,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>GIC1</c:v>
+                  <c:v>GIC2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>CE</c:v>
@@ -1024,40 +1024,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-66</c:v>
+                  <c:v>-64.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-59.993999999999993</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-54.534545999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-49.571902313999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-45.060859203426006</c:v>
+                  <c:v>-58.903199999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-53.543008799999988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-48.670594999199999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-44.241570854272801</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-40.960321015914239</c:v>
+                  <c:v>-40.215587906533976</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-37.232931803466045</c:v>
+                  <c:v>-36.555969407039385</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-33.844735009350629</c:v>
+                  <c:v>-33.229376190998799</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-30.764864123499727</c:v>
+                  <c:v>-30.205502957617909</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-27.965261488261252</c:v>
+                  <c:v>-27.456802188474686</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-25.420422692829476</c:v>
+                  <c:v>-24.95823318932349</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-23.107164227781993</c:v>
+                  <c:v>-22.687033969095051</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1078,7 +1078,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>GIC1</c:v>
+                  <c:v>GIC2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>CU</c:v>
@@ -1155,40 +1155,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-11</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-10.89</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-10.7811</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-10.673289</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-10.566556110000001</c:v>
+                  <c:v>-9.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-9.8010000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9.7029899999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-9.605960099999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-10.4608905489</c:v>
+                  <c:v>-9.5099004989999987</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-10.356281643411</c:v>
+                  <c:v>-9.414801494009998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-10.25271882697689</c:v>
+                  <c:v>-9.3206534790698985</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-10.15019163870712</c:v>
+                  <c:v>-9.2274469442791993</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-10.048689722320049</c:v>
+                  <c:v>-9.1351724748364074</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-9.9482028250968479</c:v>
+                  <c:v>-9.0438207500880434</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-9.8487207968458801</c:v>
+                  <c:v>-8.9533825425871623</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1209,7 +1209,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>GIC1</c:v>
+                  <c:v>GIC2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>RA</c:v>
@@ -1286,40 +1286,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-3.3000000000000003</c:v>
+                  <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.9996999999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-2.7267273000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-2.4785951157000006</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-2.2530429601713009</c:v>
+                  <c:v>-2.7269999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.4788429999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.2532682869999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.0482208728829998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-2.0480160507957126</c:v>
+                  <c:v>-1.861832773450647</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.8616465901733028</c:v>
+                  <c:v>-1.692405991066638</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.692236750467532</c:v>
+                  <c:v>-1.5383970458795739</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.5382432061749869</c:v>
+                  <c:v>-1.3984029147045327</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.3982630744130631</c:v>
+                  <c:v>-1.2711482494664204</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.2710211346414744</c:v>
+                  <c:v>-1.1554737587649762</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.1553582113891001</c:v>
+                  <c:v>-1.0503256467173632</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1340,7 +1340,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>GIC1</c:v>
+                  <c:v>GIC2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>PR</c:v>
@@ -1422,40 +1422,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>82.5</c:v>
+                  <c:v>93.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78.375</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>74.456249999999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>70.733437499999994</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>67.196765624999998</c:v>
+                  <c:v>88.919999999999987</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>84.47399999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80.250299999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76.237784999999988</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>63.836927343749991</c:v>
+                  <c:v>72.425895749999981</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60.64508097656249</c:v>
+                  <c:v>68.80460096249999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>57.612826927734361</c:v>
+                  <c:v>65.364370914374987</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>54.732185581347643</c:v>
+                  <c:v>62.096152368656234</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>51.995576302280256</c:v>
+                  <c:v>58.991344750223412</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>49.395797487166242</c:v>
+                  <c:v>56.041777512712244</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>46.926007612807929</c:v>
+                  <c:v>53.239688637076632</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1476,7 +1476,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>GIC1</c:v>
+                  <c:v>GIC2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>NIC</c:v>
@@ -1558,40 +1558,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-5</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-5</c:v>
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-5</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-5</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-5</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-5</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-5</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-5</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-5</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1612,7 +1612,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>GIC1</c:v>
+                  <c:v>GIC2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>ICO</c:v>
@@ -1694,40 +1694,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-1.24</c:v>
+                  <c:v>-1.488</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.24</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-1.24</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-1.24</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1.24</c:v>
+                  <c:v>-1.488</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.488</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.488</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.488</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.24</c:v>
+                  <c:v>-1.488</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.24</c:v>
+                  <c:v>-1.488</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.24</c:v>
+                  <c:v>-1.488</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.24</c:v>
+                  <c:v>-1.488</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.24</c:v>
+                  <c:v>-1.488</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.24</c:v>
+                  <c:v>-1.488</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.24</c:v>
+                  <c:v>-1.488</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1748,7 +1748,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>GIC1</c:v>
+                  <c:v>GIC2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>CE</c:v>
@@ -1830,40 +1830,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-66</c:v>
+                  <c:v>-72</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-59.993999999999993</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-54.534545999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-49.571902313999992</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-45.060859203425998</c:v>
+                  <c:v>-65.447999999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-59.492231999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-54.078438888000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-49.157300949192006</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-40.960321015914232</c:v>
+                  <c:v>-44.683986562815534</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-37.232931803466037</c:v>
+                  <c:v>-40.617743785599316</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-33.844735009350622</c:v>
+                  <c:v>-36.921529101109776</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-30.764864123499724</c:v>
+                  <c:v>-33.561669952908794</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-27.965261488261248</c:v>
+                  <c:v>-30.507557987194094</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-25.420422692829472</c:v>
+                  <c:v>-27.731370210359433</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-23.10716422778199</c:v>
+                  <c:v>-25.207815521216723</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1884,7 +1884,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>GIC1</c:v>
+                  <c:v>GIC2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>CU</c:v>
@@ -1963,40 +1963,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-11</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-10.89</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-10.7811</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-10.673289</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-10.566556110000001</c:v>
+                  <c:v>-9.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-9.8010000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9.7029899999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-9.605960099999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-10.4608905489</c:v>
+                  <c:v>-9.5099004989999987</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-10.356281643411</c:v>
+                  <c:v>-9.414801494009998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-10.25271882697689</c:v>
+                  <c:v>-9.3206534790698985</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-10.15019163870712</c:v>
+                  <c:v>-9.2274469442791993</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-10.048689722320049</c:v>
+                  <c:v>-9.1351724748364074</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-9.9482028250968479</c:v>
+                  <c:v>-9.0438207500880434</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-9.8487207968458801</c:v>
+                  <c:v>-8.9533825425871623</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2017,7 +2017,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>GIC1</c:v>
+                  <c:v>GIC2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>RA</c:v>
@@ -2096,40 +2096,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-3.3000000000000003</c:v>
+                  <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.9996999999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-2.7267272999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-2.4785951157000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-2.2530429601713005</c:v>
+                  <c:v>-2.7269999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.4788429999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.2532682869999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.0482208728829998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-2.0480160507957126</c:v>
+                  <c:v>-1.861832773450647</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.8616465901733028</c:v>
+                  <c:v>-1.692405991066638</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.692236750467532</c:v>
+                  <c:v>-1.5383970458795739</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.5382432061749869</c:v>
+                  <c:v>-1.3984029147045327</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.3982630744130629</c:v>
+                  <c:v>-1.2711482494664204</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.2710211346414741</c:v>
+                  <c:v>-1.1554737587649762</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.1553582113890999</c:v>
+                  <c:v>-1.0503256467173632</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2150,7 +2150,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>GIC1</c:v>
+                  <c:v>GIC2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>PR</c:v>
@@ -2233,40 +2233,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>91.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86.64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82.308000000000007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>78.192599999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30</c:v>
+                  <c:v>74.282969999999992</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>70.568821499999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>67.040380424999995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30</c:v>
+                  <c:v>63.688361403749987</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>60.503943333562482</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>57.478746166884363</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>30</c:v>
+                  <c:v>54.604808858540139</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2287,7 +2287,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>GIC1</c:v>
+                  <c:v>GIC2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>NIC</c:v>
@@ -2370,40 +2370,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-5</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-5</c:v>
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-5</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-5</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-5</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-5</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-5</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-5</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-5</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2424,7 +2424,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>GIC1</c:v>
+                  <c:v>GIC2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>ICO</c:v>
@@ -2507,40 +2507,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-1.24</c:v>
+                  <c:v>-1.488</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.24</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-1.24</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-1.24</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1.24</c:v>
+                  <c:v>-1.488</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.488</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.488</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.488</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.24</c:v>
+                  <c:v>-1.488</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.24</c:v>
+                  <c:v>-1.488</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.24</c:v>
+                  <c:v>-1.488</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.24</c:v>
+                  <c:v>-1.488</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.24</c:v>
+                  <c:v>-1.488</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.24</c:v>
+                  <c:v>-1.488</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.24</c:v>
+                  <c:v>-1.488</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2561,7 +2561,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>GIC1</c:v>
+                  <c:v>GIC2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>CE</c:v>
@@ -2644,40 +2644,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-70.290000000000006</c:v>
+                  <c:v>-76.679999999999993</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-63.893609999999995</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-58.079291489999996</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-52.794075964409991</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-47.989815051648684</c:v>
+                  <c:v>-69.702119999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-63.359227079999989</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-57.59353741572</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-52.352525510889485</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-43.622741881948656</c:v>
+                  <c:v>-47.58844568939854</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-39.653072370691326</c:v>
+                  <c:v>-43.257897131663277</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-36.044642784958405</c:v>
+                  <c:v>-39.32142849268191</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-32.764580291527203</c:v>
+                  <c:v>-35.743178499847865</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-29.783003484998225</c:v>
+                  <c:v>-32.49054925636171</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-27.072750167863383</c:v>
+                  <c:v>-29.533909274032794</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-24.609129902587814</c:v>
+                  <c:v>-26.846323530095813</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2698,7 +2698,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>GIC1</c:v>
+                  <c:v>GIC2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>CU</c:v>
@@ -2778,40 +2778,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-11</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-10.89</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-10.7811</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-10.673289</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-10.566556110000001</c:v>
+                  <c:v>-9.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-9.8010000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9.7029899999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-9.605960099999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-10.4608905489</c:v>
+                  <c:v>-9.5099004989999987</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-10.356281643411</c:v>
+                  <c:v>-9.414801494009998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-10.25271882697689</c:v>
+                  <c:v>-9.3206534790698985</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-10.15019163870712</c:v>
+                  <c:v>-9.2274469442791993</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-10.048689722320049</c:v>
+                  <c:v>-9.1351724748364074</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-9.9482028250968479</c:v>
+                  <c:v>-9.0438207500880434</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-9.8487207968458801</c:v>
+                  <c:v>-8.9533825425871623</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2832,7 +2832,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>GIC1</c:v>
+                  <c:v>GIC2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>RA</c:v>
@@ -2912,40 +2912,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-3.3000000000000003</c:v>
+                  <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.9996999999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-2.7267272999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-2.4785951157000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-2.2530429601713005</c:v>
+                  <c:v>-2.7269999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.4788429999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.2532682869999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.0482208728829998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-2.0480160507957126</c:v>
+                  <c:v>-1.861832773450647</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.8616465901733028</c:v>
+                  <c:v>-1.692405991066638</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.692236750467532</c:v>
+                  <c:v>-1.5383970458795739</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.5382432061749869</c:v>
+                  <c:v>-1.3984029147045327</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.3982630744130629</c:v>
+                  <c:v>-1.2711482494664204</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.2710211346414741</c:v>
+                  <c:v>-1.1554737587649762</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.1553582113890999</c:v>
+                  <c:v>-1.0503256467173632</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2966,7 +2966,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>GIC1</c:v>
+                  <c:v>GIC2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>PR</c:v>
@@ -3048,40 +3048,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>79.53</c:v>
+                  <c:v>98.759999999999991</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>75.5535</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>71.775824999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>68.187033749999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>64.777682062499991</c:v>
+                  <c:v>93.822000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>89.130899999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>84.674354999999991</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80.440637249999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>61.538797959374989</c:v>
+                  <c:v>76.41860538749998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>58.461858061406232</c:v>
+                  <c:v>72.597675118124982</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>55.538765158335913</c:v>
+                  <c:v>68.967791362218733</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>52.761826900419116</c:v>
+                  <c:v>65.519401794107793</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50.123735555398156</c:v>
+                  <c:v>62.243431704402404</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>47.617548777628251</c:v>
+                  <c:v>59.131260119182286</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45.236671338746838</c:v>
+                  <c:v>56.174697113223161</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3102,7 +3102,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>GIC1</c:v>
+                  <c:v>GIC2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>NIC</c:v>
@@ -3184,40 +3184,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-20</c:v>
+                  <c:v>-24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-20</c:v>
+                  <c:v>-24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-24</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-20</c:v>
+                  <c:v>-24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-20</c:v>
+                  <c:v>-24</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-20</c:v>
+                  <c:v>-24</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-20</c:v>
+                  <c:v>-24</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-20</c:v>
+                  <c:v>-24</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-20</c:v>
+                  <c:v>-24</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-20</c:v>
+                  <c:v>-24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3238,7 +3238,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>GIC1</c:v>
+                  <c:v>GIC2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>ICO</c:v>
@@ -3320,40 +3320,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-1.24</c:v>
+                  <c:v>-1.488</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.24</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-1.24</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-1.24</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1.24</c:v>
+                  <c:v>-1.488</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.488</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.488</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.488</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.24</c:v>
+                  <c:v>-1.488</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.24</c:v>
+                  <c:v>-1.488</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.24</c:v>
+                  <c:v>-1.488</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.24</c:v>
+                  <c:v>-1.488</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.24</c:v>
+                  <c:v>-1.488</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.24</c:v>
+                  <c:v>-1.488</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.24</c:v>
+                  <c:v>-1.488</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3374,7 +3374,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>GIC1</c:v>
+                  <c:v>GIC2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>CE</c:v>
@@ -3456,40 +3456,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-70.290000000000006</c:v>
+                  <c:v>-76.679999999999993</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-63.893609999999988</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-58.079291489999989</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-52.794075964409984</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-47.989815051648677</c:v>
+                  <c:v>-69.702119999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-63.359227079999989</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-57.59353741572</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-52.352525510889485</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-43.622741881948649</c:v>
+                  <c:v>-47.58844568939854</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-39.653072370691319</c:v>
+                  <c:v>-43.257897131663277</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-36.044642784958398</c:v>
+                  <c:v>-39.32142849268191</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-32.764580291527196</c:v>
+                  <c:v>-35.743178499847865</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-29.783003484998218</c:v>
+                  <c:v>-32.49054925636171</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-27.072750167863379</c:v>
+                  <c:v>-29.533909274032794</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-24.60912990258781</c:v>
+                  <c:v>-26.846323530095816</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3510,7 +3510,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>GIC1</c:v>
+                  <c:v>GIC2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>CU</c:v>
@@ -3589,40 +3589,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-11</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-10.89</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-10.7811</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-10.673289</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-10.566556110000001</c:v>
+                  <c:v>-9.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-9.8010000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9.7029899999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-9.605960099999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-10.4608905489</c:v>
+                  <c:v>-9.5099004989999987</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-10.356281643411</c:v>
+                  <c:v>-9.414801494009998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-10.25271882697689</c:v>
+                  <c:v>-9.3206534790698985</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-10.15019163870712</c:v>
+                  <c:v>-9.2274469442791993</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-10.048689722320049</c:v>
+                  <c:v>-9.1351724748364074</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-9.9482028250968479</c:v>
+                  <c:v>-9.0438207500880434</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-9.8487207968458801</c:v>
+                  <c:v>-8.9533825425871623</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3643,7 +3643,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>GIC1</c:v>
+                  <c:v>GIC2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>RA</c:v>
@@ -3722,40 +3722,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-3.3000000000000003</c:v>
+                  <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.9996999999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-2.7267272999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-2.4785951157000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-2.2530429601713005</c:v>
+                  <c:v>-2.7269999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.4788429999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.2532682869999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.0482208728829998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-2.0480160507957126</c:v>
+                  <c:v>-1.861832773450647</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.8616465901733028</c:v>
+                  <c:v>-1.692405991066638</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.692236750467532</c:v>
+                  <c:v>-1.5383970458795739</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.5382432061749869</c:v>
+                  <c:v>-1.3984029147045327</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.3982630744130629</c:v>
+                  <c:v>-1.2711482494664204</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.2710211346414741</c:v>
+                  <c:v>-1.1554737587649762</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.1553582113890999</c:v>
+                  <c:v>-1.0503256467173632</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4926,7 +4926,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4940,7 +4940,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -4964,7 +4964,7 @@
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5031,1481 +5031,1250 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>24</v>
       </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
       <c r="F2" s="1">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="G2" s="1">
-        <f>+F2*0.9</f>
-        <v>69.3</v>
+        <v>81</v>
       </c>
       <c r="H2" s="1">
-        <f t="shared" ref="H2:Q2" si="0">+G2*0.9</f>
-        <v>62.37</v>
+        <v>72.899999999999991</v>
       </c>
       <c r="I2" s="1">
-        <f t="shared" si="0"/>
-        <v>56.132999999999996</v>
+        <v>65.61</v>
       </c>
       <c r="J2" s="1">
-        <f t="shared" si="0"/>
-        <v>50.5197</v>
+        <v>59.048999999999999</v>
       </c>
       <c r="K2" s="1">
-        <f t="shared" si="0"/>
-        <v>45.467730000000003</v>
+        <v>53.144100000000002</v>
       </c>
       <c r="L2" s="1">
-        <f t="shared" si="0"/>
-        <v>40.920957000000001</v>
+        <v>47.829690000000006</v>
       </c>
       <c r="M2" s="1">
-        <f t="shared" si="0"/>
-        <v>36.8288613</v>
+        <v>43.046721000000005</v>
       </c>
       <c r="N2" s="1">
-        <f t="shared" si="0"/>
-        <v>33.14597517</v>
+        <v>38.742048900000007</v>
       </c>
       <c r="O2" s="1">
-        <f t="shared" si="0"/>
-        <v>29.831377653000001</v>
+        <v>34.867844010000006</v>
       </c>
       <c r="P2" s="1">
-        <f t="shared" si="0"/>
-        <v>26.8482398877</v>
+        <v>31.381059609000005</v>
       </c>
       <c r="Q2" s="1">
-        <f t="shared" si="0"/>
-        <v>24.163415898930001</v>
+        <v>28.242953648100009</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>24</v>
       </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
       <c r="F3" s="1">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="G3" s="1">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="H3" s="1">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="I3" s="1">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="J3" s="1">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="K3" s="1">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="L3" s="1">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="M3" s="1">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="N3" s="1">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="O3" s="1">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="P3" s="1">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="Q3" s="1">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
       <c r="F4" s="1">
-        <v>-1.24</v>
+        <v>-1.488</v>
       </c>
       <c r="G4" s="1">
-        <v>-1.24</v>
+        <v>-1.488</v>
       </c>
       <c r="H4" s="1">
-        <v>-1.24</v>
+        <v>-1.488</v>
       </c>
       <c r="I4" s="1">
-        <v>-1.24</v>
+        <v>-1.488</v>
       </c>
       <c r="J4" s="1">
-        <v>-1.24</v>
+        <v>-1.488</v>
       </c>
       <c r="K4" s="1">
-        <v>-1.24</v>
+        <v>-1.488</v>
       </c>
       <c r="L4" s="1">
-        <v>-1.24</v>
+        <v>-1.488</v>
       </c>
       <c r="M4" s="1">
-        <v>-1.24</v>
+        <v>-1.488</v>
       </c>
       <c r="N4" s="1">
-        <v>-1.24</v>
+        <v>-1.488</v>
       </c>
       <c r="O4" s="1">
-        <v>-1.24</v>
+        <v>-1.488</v>
       </c>
       <c r="P4" s="1">
-        <v>-1.24</v>
+        <v>-1.488</v>
       </c>
       <c r="Q4" s="1">
-        <v>-1.24</v>
+        <v>-1.488</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>24</v>
       </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
       <c r="F5" s="1">
-        <v>-66</v>
+        <v>-64.8</v>
       </c>
       <c r="G5" s="1">
-        <f>+F5*1.01*G2/F2</f>
-        <v>-59.993999999999993</v>
+        <v>-58.903199999999998</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" ref="H5:Q5" si="1">+G5*1.01*H2/G2</f>
-        <v>-54.534545999999999</v>
+        <v>-53.543008799999988</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" si="1"/>
-        <v>-49.571902313999999</v>
+        <v>-48.670594999199999</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="1"/>
-        <v>-45.060859203426006</v>
+        <v>-44.241570854272801</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="1"/>
-        <v>-40.960321015914239</v>
+        <v>-40.215587906533976</v>
       </c>
       <c r="L5" s="1">
-        <f t="shared" si="1"/>
-        <v>-37.232931803466045</v>
+        <v>-36.555969407039385</v>
       </c>
       <c r="M5" s="1">
-        <f t="shared" si="1"/>
-        <v>-33.844735009350629</v>
+        <v>-33.229376190998799</v>
       </c>
       <c r="N5" s="1">
-        <f t="shared" si="1"/>
-        <v>-30.764864123499727</v>
+        <v>-30.205502957617909</v>
       </c>
       <c r="O5" s="1">
-        <f t="shared" si="1"/>
-        <v>-27.965261488261252</v>
+        <v>-27.456802188474686</v>
       </c>
       <c r="P5" s="1">
-        <f t="shared" si="1"/>
-        <v>-25.420422692829476</v>
+        <v>-24.95823318932349</v>
       </c>
       <c r="Q5" s="1">
-        <f t="shared" si="1"/>
-        <v>-23.107164227781993</v>
+        <v>-22.687033969095051</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
         <v>24</v>
       </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
       <c r="F6" s="1">
-        <v>-11</v>
+        <v>-10</v>
       </c>
       <c r="G6" s="1">
-        <f>+F6*0.99</f>
-        <v>-10.89</v>
+        <v>-9.9</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" ref="H6:Q6" si="2">+G6*0.99</f>
-        <v>-10.7811</v>
+        <v>-9.8010000000000002</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="2"/>
-        <v>-10.673289</v>
+        <v>-9.7029899999999998</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="2"/>
-        <v>-10.566556110000001</v>
+        <v>-9.605960099999999</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="2"/>
-        <v>-10.4608905489</v>
+        <v>-9.5099004989999987</v>
       </c>
       <c r="L6" s="1">
-        <f t="shared" si="2"/>
-        <v>-10.356281643411</v>
+        <v>-9.414801494009998</v>
       </c>
       <c r="M6" s="1">
-        <f t="shared" si="2"/>
-        <v>-10.25271882697689</v>
+        <v>-9.3206534790698985</v>
       </c>
       <c r="N6" s="1">
-        <f t="shared" si="2"/>
-        <v>-10.15019163870712</v>
+        <v>-9.2274469442791993</v>
       </c>
       <c r="O6" s="1">
-        <f t="shared" si="2"/>
-        <v>-10.048689722320049</v>
+        <v>-9.1351724748364074</v>
       </c>
       <c r="P6" s="1">
-        <f t="shared" si="2"/>
-        <v>-9.9482028250968479</v>
+        <v>-9.0438207500880434</v>
       </c>
       <c r="Q6" s="1">
-        <f t="shared" si="2"/>
-        <v>-9.8487207968458801</v>
+        <v>-8.9533825425871623</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
         <v>24</v>
       </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
       <c r="F7" s="1">
-        <v>-3.3000000000000003</v>
+        <v>-3</v>
       </c>
       <c r="G7" s="1">
-        <f>+F7*G5/F5</f>
-        <v>-2.9996999999999998</v>
+        <v>-2.7269999999999999</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" ref="H7:Q7" si="3">+G7*H5/G5</f>
-        <v>-2.7267273000000003</v>
+        <v>-2.4788429999999995</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="3"/>
-        <v>-2.4785951157000006</v>
+        <v>-2.2532682869999996</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="3"/>
-        <v>-2.2530429601713009</v>
+        <v>-2.0482208728829998</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="3"/>
-        <v>-2.0480160507957126</v>
+        <v>-1.861832773450647</v>
       </c>
       <c r="L7" s="1">
-        <f t="shared" si="3"/>
-        <v>-1.8616465901733028</v>
+        <v>-1.692405991066638</v>
       </c>
       <c r="M7" s="1">
-        <f t="shared" si="3"/>
-        <v>-1.692236750467532</v>
+        <v>-1.5383970458795739</v>
       </c>
       <c r="N7" s="1">
-        <f t="shared" si="3"/>
-        <v>-1.5382432061749869</v>
+        <v>-1.3984029147045327</v>
       </c>
       <c r="O7" s="1">
-        <f t="shared" si="3"/>
-        <v>-1.3982630744130631</v>
+        <v>-1.2711482494664204</v>
       </c>
       <c r="P7" s="1">
-        <f t="shared" si="3"/>
-        <v>-1.2710211346414744</v>
+        <v>-1.1554737587649762</v>
       </c>
       <c r="Q7" s="1">
-        <f t="shared" si="3"/>
-        <v>-1.1553582113891001</v>
+        <v>-1.0503256467173632</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8" s="1">
-        <v>82.5</v>
+        <v>93.6</v>
       </c>
       <c r="G8" s="1">
-        <f>+F8*0.95</f>
-        <v>78.375</v>
+        <v>88.919999999999987</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" ref="H8:Q8" si="4">+G8*0.95</f>
-        <v>74.456249999999997</v>
+        <v>84.47399999999999</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="4"/>
-        <v>70.733437499999994</v>
+        <v>80.250299999999996</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="4"/>
-        <v>67.196765624999998</v>
+        <v>76.237784999999988</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="4"/>
-        <v>63.836927343749991</v>
+        <v>72.425895749999981</v>
       </c>
       <c r="L8" s="1">
-        <f t="shared" si="4"/>
-        <v>60.64508097656249</v>
+        <v>68.80460096249999</v>
       </c>
       <c r="M8" s="1">
-        <f t="shared" si="4"/>
-        <v>57.612826927734361</v>
+        <v>65.364370914374987</v>
       </c>
       <c r="N8" s="1">
-        <f t="shared" si="4"/>
-        <v>54.732185581347643</v>
+        <v>62.096152368656234</v>
       </c>
       <c r="O8" s="1">
-        <f t="shared" si="4"/>
-        <v>51.995576302280256</v>
+        <v>58.991344750223412</v>
       </c>
       <c r="P8" s="1">
-        <f t="shared" si="4"/>
-        <v>49.395797487166242</v>
+        <v>56.041777512712244</v>
       </c>
       <c r="Q8" s="1">
-        <f t="shared" si="4"/>
-        <v>46.926007612807929</v>
+        <v>53.239688637076632</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9" s="1">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" ref="G9:Q19" si="5">+F9*G3/F3</f>
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="5"/>
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="5"/>
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="5"/>
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="5"/>
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="L9" s="1">
-        <f t="shared" si="5"/>
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="M9" s="1">
-        <f t="shared" si="5"/>
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="N9" s="1">
-        <f t="shared" si="5"/>
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="O9" s="1">
-        <f t="shared" si="5"/>
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="P9" s="1">
-        <f t="shared" si="5"/>
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="Q9" s="1">
-        <f t="shared" si="5"/>
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F10" s="1">
-        <v>-1.24</v>
+        <v>-1.488</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="5"/>
-        <v>-1.24</v>
+        <v>-1.488</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="5"/>
-        <v>-1.24</v>
+        <v>-1.488</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="5"/>
-        <v>-1.24</v>
+        <v>-1.488</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="5"/>
-        <v>-1.24</v>
+        <v>-1.488</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="5"/>
-        <v>-1.24</v>
+        <v>-1.488</v>
       </c>
       <c r="L10" s="1">
-        <f t="shared" si="5"/>
-        <v>-1.24</v>
+        <v>-1.488</v>
       </c>
       <c r="M10" s="1">
-        <f t="shared" si="5"/>
-        <v>-1.24</v>
+        <v>-1.488</v>
       </c>
       <c r="N10" s="1">
-        <f t="shared" si="5"/>
-        <v>-1.24</v>
+        <v>-1.488</v>
       </c>
       <c r="O10" s="1">
-        <f t="shared" si="5"/>
-        <v>-1.24</v>
+        <v>-1.488</v>
       </c>
       <c r="P10" s="1">
-        <f t="shared" si="5"/>
-        <v>-1.24</v>
+        <v>-1.488</v>
       </c>
       <c r="Q10" s="1">
-        <f t="shared" si="5"/>
-        <v>-1.24</v>
+        <v>-1.488</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11" s="1">
-        <v>-66</v>
+        <v>-72</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="5"/>
-        <v>-59.993999999999993</v>
+        <v>-65.447999999999993</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="5"/>
-        <v>-54.534545999999999</v>
+        <v>-59.492231999999994</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="5"/>
-        <v>-49.571902313999992</v>
+        <v>-54.078438888000001</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="5"/>
-        <v>-45.060859203425998</v>
+        <v>-49.157300949192006</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="5"/>
-        <v>-40.960321015914232</v>
+        <v>-44.683986562815534</v>
       </c>
       <c r="L11" s="1">
-        <f t="shared" si="5"/>
-        <v>-37.232931803466037</v>
+        <v>-40.617743785599316</v>
       </c>
       <c r="M11" s="1">
-        <f t="shared" si="5"/>
-        <v>-33.844735009350622</v>
+        <v>-36.921529101109776</v>
       </c>
       <c r="N11" s="1">
-        <f t="shared" si="5"/>
-        <v>-30.764864123499724</v>
+        <v>-33.561669952908794</v>
       </c>
       <c r="O11" s="1">
-        <f t="shared" si="5"/>
-        <v>-27.965261488261248</v>
+        <v>-30.507557987194094</v>
       </c>
       <c r="P11" s="1">
-        <f t="shared" si="5"/>
-        <v>-25.420422692829472</v>
+        <v>-27.731370210359433</v>
       </c>
       <c r="Q11" s="1">
-        <f t="shared" si="5"/>
-        <v>-23.10716422778199</v>
+        <v>-25.207815521216723</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F12" s="1">
-        <v>-11</v>
+        <v>-10</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="5"/>
-        <v>-10.89</v>
+        <v>-9.9</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="5"/>
-        <v>-10.7811</v>
+        <v>-9.8010000000000002</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="5"/>
-        <v>-10.673289</v>
+        <v>-9.7029899999999998</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="5"/>
-        <v>-10.566556110000001</v>
+        <v>-9.605960099999999</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="5"/>
-        <v>-10.4608905489</v>
+        <v>-9.5099004989999987</v>
       </c>
       <c r="L12" s="1">
-        <f t="shared" si="5"/>
-        <v>-10.356281643411</v>
+        <v>-9.414801494009998</v>
       </c>
       <c r="M12" s="1">
-        <f t="shared" si="5"/>
-        <v>-10.25271882697689</v>
+        <v>-9.3206534790698985</v>
       </c>
       <c r="N12" s="1">
-        <f t="shared" si="5"/>
-        <v>-10.15019163870712</v>
+        <v>-9.2274469442791993</v>
       </c>
       <c r="O12" s="1">
-        <f t="shared" si="5"/>
-        <v>-10.048689722320049</v>
+        <v>-9.1351724748364074</v>
       </c>
       <c r="P12" s="1">
-        <f t="shared" si="5"/>
-        <v>-9.9482028250968479</v>
+        <v>-9.0438207500880434</v>
       </c>
       <c r="Q12" s="1">
-        <f t="shared" si="5"/>
-        <v>-9.8487207968458801</v>
+        <v>-8.9533825425871623</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
         <v>30</v>
       </c>
-      <c r="D13" t="s">
-        <v>31</v>
-      </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F13" s="1">
-        <v>-3.3000000000000003</v>
+        <v>-3</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="5"/>
-        <v>-2.9996999999999998</v>
+        <v>-2.7269999999999999</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="5"/>
-        <v>-2.7267272999999999</v>
+        <v>-2.4788429999999995</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="5"/>
-        <v>-2.4785951157000001</v>
+        <v>-2.2532682869999996</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="5"/>
-        <v>-2.2530429601713005</v>
+        <v>-2.0482208728829998</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="5"/>
-        <v>-2.0480160507957126</v>
+        <v>-1.861832773450647</v>
       </c>
       <c r="L13" s="1">
-        <f t="shared" si="5"/>
-        <v>-1.8616465901733028</v>
+        <v>-1.692405991066638</v>
       </c>
       <c r="M13" s="1">
-        <f t="shared" si="5"/>
-        <v>-1.692236750467532</v>
+        <v>-1.5383970458795739</v>
       </c>
       <c r="N13" s="1">
-        <f t="shared" si="5"/>
-        <v>-1.5382432061749869</v>
+        <v>-1.3984029147045327</v>
       </c>
       <c r="O13" s="1">
-        <f t="shared" si="5"/>
-        <v>-1.3982630744130629</v>
+        <v>-1.2711482494664204</v>
       </c>
       <c r="P13" s="1">
-        <f t="shared" si="5"/>
-        <v>-1.2710211346414741</v>
+        <v>-1.1554737587649762</v>
       </c>
       <c r="Q13" s="1">
-        <f t="shared" si="5"/>
-        <v>-1.1553582113890999</v>
+        <v>-1.0503256467173632</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
         <v>21</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>22</v>
       </c>
-      <c r="C14" t="s">
-        <v>23</v>
-      </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F14" s="1">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="G14" s="2">
-        <v>0</v>
+        <v>91.2</v>
       </c>
       <c r="H14" s="2">
-        <v>30</v>
+        <v>86.64</v>
       </c>
       <c r="I14" s="2">
-        <v>0</v>
+        <v>82.308000000000007</v>
       </c>
       <c r="J14" s="2">
-        <v>0</v>
+        <v>78.192599999999999</v>
       </c>
       <c r="K14" s="2">
-        <v>30</v>
+        <v>74.282969999999992</v>
       </c>
       <c r="L14" s="2">
-        <v>0</v>
+        <v>70.568821499999999</v>
       </c>
       <c r="M14" s="2">
-        <v>0</v>
+        <v>67.040380424999995</v>
       </c>
       <c r="N14" s="2">
-        <v>30</v>
+        <v>63.688361403749987</v>
       </c>
       <c r="O14" s="2">
-        <v>0</v>
+        <v>60.503943333562482</v>
       </c>
       <c r="P14" s="2">
-        <v>0</v>
+        <v>57.478746166884363</v>
       </c>
       <c r="Q14" s="2">
-        <v>30</v>
+        <v>54.604808858540139</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F15" s="1">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" si="5"/>
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="5"/>
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" si="5"/>
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="5"/>
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="5"/>
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="L15" s="1">
-        <f t="shared" si="5"/>
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="M15" s="1">
-        <f t="shared" si="5"/>
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="N15" s="1">
-        <f t="shared" si="5"/>
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="O15" s="1">
-        <f t="shared" si="5"/>
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="P15" s="1">
-        <f t="shared" si="5"/>
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="Q15" s="1">
-        <f t="shared" si="5"/>
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F16" s="1">
-        <v>-1.24</v>
+        <v>-1.488</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" si="5"/>
-        <v>-1.24</v>
+        <v>-1.488</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="5"/>
-        <v>-1.24</v>
+        <v>-1.488</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" si="5"/>
-        <v>-1.24</v>
+        <v>-1.488</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="5"/>
-        <v>-1.24</v>
+        <v>-1.488</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="5"/>
-        <v>-1.24</v>
+        <v>-1.488</v>
       </c>
       <c r="L16" s="1">
-        <f t="shared" si="5"/>
-        <v>-1.24</v>
+        <v>-1.488</v>
       </c>
       <c r="M16" s="1">
-        <f t="shared" si="5"/>
-        <v>-1.24</v>
+        <v>-1.488</v>
       </c>
       <c r="N16" s="1">
-        <f t="shared" si="5"/>
-        <v>-1.24</v>
+        <v>-1.488</v>
       </c>
       <c r="O16" s="1">
-        <f t="shared" si="5"/>
-        <v>-1.24</v>
+        <v>-1.488</v>
       </c>
       <c r="P16" s="1">
-        <f t="shared" si="5"/>
-        <v>-1.24</v>
+        <v>-1.488</v>
       </c>
       <c r="Q16" s="1">
-        <f t="shared" si="5"/>
-        <v>-1.24</v>
+        <v>-1.488</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F17" s="1">
-        <v>-70.290000000000006</v>
+        <v>-76.679999999999993</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" si="5"/>
-        <v>-63.893609999999995</v>
+        <v>-69.702119999999994</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="5"/>
-        <v>-58.079291489999996</v>
+        <v>-63.359227079999989</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" si="5"/>
-        <v>-52.794075964409991</v>
+        <v>-57.59353741572</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="5"/>
-        <v>-47.989815051648684</v>
+        <v>-52.352525510889485</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="5"/>
-        <v>-43.622741881948656</v>
+        <v>-47.58844568939854</v>
       </c>
       <c r="L17" s="1">
-        <f t="shared" si="5"/>
-        <v>-39.653072370691326</v>
+        <v>-43.257897131663277</v>
       </c>
       <c r="M17" s="1">
-        <f t="shared" si="5"/>
-        <v>-36.044642784958405</v>
+        <v>-39.32142849268191</v>
       </c>
       <c r="N17" s="1">
-        <f t="shared" si="5"/>
-        <v>-32.764580291527203</v>
+        <v>-35.743178499847865</v>
       </c>
       <c r="O17" s="1">
-        <f t="shared" si="5"/>
-        <v>-29.783003484998225</v>
+        <v>-32.49054925636171</v>
       </c>
       <c r="P17" s="1">
-        <f t="shared" si="5"/>
-        <v>-27.072750167863383</v>
+        <v>-29.533909274032794</v>
       </c>
       <c r="Q17" s="1">
-        <f t="shared" si="5"/>
-        <v>-24.609129902587814</v>
+        <v>-26.846323530095813</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F18" s="1">
-        <v>-11</v>
+        <v>-10</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" si="5"/>
-        <v>-10.89</v>
+        <v>-9.9</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="5"/>
-        <v>-10.7811</v>
+        <v>-9.8010000000000002</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="5"/>
-        <v>-10.673289</v>
+        <v>-9.7029899999999998</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="5"/>
-        <v>-10.566556110000001</v>
+        <v>-9.605960099999999</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="5"/>
-        <v>-10.4608905489</v>
+        <v>-9.5099004989999987</v>
       </c>
       <c r="L18" s="1">
-        <f t="shared" si="5"/>
-        <v>-10.356281643411</v>
+        <v>-9.414801494009998</v>
       </c>
       <c r="M18" s="1">
-        <f t="shared" si="5"/>
-        <v>-10.25271882697689</v>
+        <v>-9.3206534790698985</v>
       </c>
       <c r="N18" s="1">
-        <f t="shared" si="5"/>
-        <v>-10.15019163870712</v>
+        <v>-9.2274469442791993</v>
       </c>
       <c r="O18" s="1">
-        <f t="shared" si="5"/>
-        <v>-10.048689722320049</v>
+        <v>-9.1351724748364074</v>
       </c>
       <c r="P18" s="1">
-        <f t="shared" si="5"/>
-        <v>-9.9482028250968479</v>
+        <v>-9.0438207500880434</v>
       </c>
       <c r="Q18" s="1">
-        <f t="shared" si="5"/>
-        <v>-9.8487207968458801</v>
+        <v>-8.9533825425871623</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F19" s="1">
-        <v>-3.3000000000000003</v>
+        <v>-3</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="5"/>
-        <v>-2.9996999999999998</v>
+        <v>-2.7269999999999999</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="5"/>
-        <v>-2.7267272999999999</v>
+        <v>-2.4788429999999995</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="5"/>
-        <v>-2.4785951157000001</v>
+        <v>-2.2532682869999996</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="5"/>
-        <v>-2.2530429601713005</v>
+        <v>-2.0482208728829998</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="5"/>
-        <v>-2.0480160507957126</v>
+        <v>-1.861832773450647</v>
       </c>
       <c r="L19" s="1">
-        <f t="shared" si="5"/>
-        <v>-1.8616465901733028</v>
+        <v>-1.692405991066638</v>
       </c>
       <c r="M19" s="1">
-        <f t="shared" si="5"/>
-        <v>-1.692236750467532</v>
+        <v>-1.5383970458795739</v>
       </c>
       <c r="N19" s="1">
-        <f t="shared" si="5"/>
-        <v>-1.5382432061749869</v>
+        <v>-1.3984029147045327</v>
       </c>
       <c r="O19" s="1">
-        <f t="shared" si="5"/>
-        <v>-1.3982630744130629</v>
+        <v>-1.2711482494664204</v>
       </c>
       <c r="P19" s="1">
-        <f t="shared" si="5"/>
-        <v>-1.2710211346414741</v>
+        <v>-1.1554737587649762</v>
       </c>
       <c r="Q19" s="1">
-        <f t="shared" si="5"/>
-        <v>-1.1553582113890999</v>
+        <v>-1.0503256467173632</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" t="s">
         <v>21</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>22</v>
       </c>
-      <c r="C20" t="s">
-        <v>23</v>
-      </c>
       <c r="D20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F20" s="1">
-        <v>79.53</v>
+        <v>98.759999999999991</v>
       </c>
       <c r="G20" s="1">
-        <f>+F20*G8/F8</f>
-        <v>75.5535</v>
+        <v>93.822000000000003</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" ref="H20:Q20" si="6">+G20*H8/G8</f>
-        <v>71.775824999999998</v>
+        <v>89.130899999999997</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="6"/>
-        <v>68.187033749999998</v>
+        <v>84.674354999999991</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="6"/>
-        <v>64.777682062499991</v>
+        <v>80.440637249999995</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="6"/>
-        <v>61.538797959374989</v>
+        <v>76.41860538749998</v>
       </c>
       <c r="L20" s="1">
-        <f t="shared" si="6"/>
-        <v>58.461858061406232</v>
+        <v>72.597675118124982</v>
       </c>
       <c r="M20" s="1">
-        <f t="shared" si="6"/>
-        <v>55.538765158335913</v>
+        <v>68.967791362218733</v>
       </c>
       <c r="N20" s="1">
-        <f t="shared" si="6"/>
-        <v>52.761826900419116</v>
+        <v>65.519401794107793</v>
       </c>
       <c r="O20" s="1">
-        <f t="shared" si="6"/>
-        <v>50.123735555398156</v>
+        <v>62.243431704402404</v>
       </c>
       <c r="P20" s="1">
-        <f t="shared" si="6"/>
-        <v>47.617548777628251</v>
+        <v>59.131260119182286</v>
       </c>
       <c r="Q20" s="1">
-        <f t="shared" si="6"/>
-        <v>45.236671338746838</v>
+        <v>56.174697113223161</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F21" s="1">
-        <v>-20</v>
+        <v>-24</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" ref="G21:Q21" si="7">+F21*G15/F15</f>
-        <v>-20</v>
+        <v>-24</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="7"/>
-        <v>-20</v>
+        <v>-24</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" si="7"/>
-        <v>-20</v>
+        <v>-24</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="7"/>
-        <v>-20</v>
+        <v>-24</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="7"/>
-        <v>-20</v>
+        <v>-24</v>
       </c>
       <c r="L21" s="1">
-        <f t="shared" si="7"/>
-        <v>-20</v>
+        <v>-24</v>
       </c>
       <c r="M21" s="1">
-        <f t="shared" si="7"/>
-        <v>-20</v>
+        <v>-24</v>
       </c>
       <c r="N21" s="1">
-        <f t="shared" si="7"/>
-        <v>-20</v>
+        <v>-24</v>
       </c>
       <c r="O21" s="1">
-        <f t="shared" si="7"/>
-        <v>-20</v>
+        <v>-24</v>
       </c>
       <c r="P21" s="1">
-        <f t="shared" si="7"/>
-        <v>-20</v>
+        <v>-24</v>
       </c>
       <c r="Q21" s="1">
-        <f t="shared" si="7"/>
-        <v>-20</v>
+        <v>-24</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F22" s="1">
-        <v>-1.24</v>
+        <v>-1.488</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" ref="G22:Q22" si="8">+F22*G16/F16</f>
-        <v>-1.24</v>
+        <v>-1.488</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="8"/>
-        <v>-1.24</v>
+        <v>-1.488</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" si="8"/>
-        <v>-1.24</v>
+        <v>-1.488</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="8"/>
-        <v>-1.24</v>
+        <v>-1.488</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="8"/>
-        <v>-1.24</v>
+        <v>-1.488</v>
       </c>
       <c r="L22" s="1">
-        <f t="shared" si="8"/>
-        <v>-1.24</v>
+        <v>-1.488</v>
       </c>
       <c r="M22" s="1">
-        <f t="shared" si="8"/>
-        <v>-1.24</v>
+        <v>-1.488</v>
       </c>
       <c r="N22" s="1">
-        <f t="shared" si="8"/>
-        <v>-1.24</v>
+        <v>-1.488</v>
       </c>
       <c r="O22" s="1">
-        <f t="shared" si="8"/>
-        <v>-1.24</v>
+        <v>-1.488</v>
       </c>
       <c r="P22" s="1">
-        <f t="shared" si="8"/>
-        <v>-1.24</v>
+        <v>-1.488</v>
       </c>
       <c r="Q22" s="1">
-        <f t="shared" si="8"/>
-        <v>-1.24</v>
+        <v>-1.488</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F23" s="1">
-        <v>-70.290000000000006</v>
+        <v>-76.679999999999993</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" ref="G23:Q23" si="9">+F23*G17/F17</f>
-        <v>-63.893609999999988</v>
+        <v>-69.702119999999994</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="9"/>
-        <v>-58.079291489999989</v>
+        <v>-63.359227079999989</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="9"/>
-        <v>-52.794075964409984</v>
+        <v>-57.59353741572</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="9"/>
-        <v>-47.989815051648677</v>
+        <v>-52.352525510889485</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="9"/>
-        <v>-43.622741881948649</v>
+        <v>-47.58844568939854</v>
       </c>
       <c r="L23" s="1">
-        <f t="shared" si="9"/>
-        <v>-39.653072370691319</v>
+        <v>-43.257897131663277</v>
       </c>
       <c r="M23" s="1">
-        <f t="shared" si="9"/>
-        <v>-36.044642784958398</v>
+        <v>-39.32142849268191</v>
       </c>
       <c r="N23" s="1">
-        <f t="shared" si="9"/>
-        <v>-32.764580291527196</v>
+        <v>-35.743178499847865</v>
       </c>
       <c r="O23" s="1">
-        <f t="shared" si="9"/>
-        <v>-29.783003484998218</v>
+        <v>-32.49054925636171</v>
       </c>
       <c r="P23" s="1">
-        <f t="shared" si="9"/>
-        <v>-27.072750167863379</v>
+        <v>-29.533909274032794</v>
       </c>
       <c r="Q23" s="1">
-        <f t="shared" si="9"/>
-        <v>-24.60912990258781</v>
+        <v>-26.846323530095816</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F24" s="1">
-        <v>-11</v>
+        <v>-10</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" ref="G24:Q24" si="10">+F24*G18/F18</f>
-        <v>-10.89</v>
+        <v>-9.9</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="10"/>
-        <v>-10.7811</v>
+        <v>-9.8010000000000002</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" si="10"/>
-        <v>-10.673289</v>
+        <v>-9.7029899999999998</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="10"/>
-        <v>-10.566556110000001</v>
+        <v>-9.605960099999999</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="10"/>
-        <v>-10.4608905489</v>
+        <v>-9.5099004989999987</v>
       </c>
       <c r="L24" s="1">
-        <f t="shared" si="10"/>
-        <v>-10.356281643411</v>
+        <v>-9.414801494009998</v>
       </c>
       <c r="M24" s="1">
-        <f t="shared" si="10"/>
-        <v>-10.25271882697689</v>
+        <v>-9.3206534790698985</v>
       </c>
       <c r="N24" s="1">
-        <f t="shared" si="10"/>
-        <v>-10.15019163870712</v>
+        <v>-9.2274469442791993</v>
       </c>
       <c r="O24" s="1">
-        <f t="shared" si="10"/>
-        <v>-10.048689722320049</v>
+        <v>-9.1351724748364074</v>
       </c>
       <c r="P24" s="1">
-        <f t="shared" si="10"/>
-        <v>-9.9482028250968479</v>
+        <v>-9.0438207500880434</v>
       </c>
       <c r="Q24" s="1">
-        <f t="shared" si="10"/>
-        <v>-9.8487207968458801</v>
+        <v>-8.9533825425871623</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F25" s="1">
-        <v>-3.3000000000000003</v>
+        <v>-3</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" ref="G25:Q25" si="11">+F25*G19/F19</f>
-        <v>-2.9996999999999998</v>
+        <v>-2.7269999999999999</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="11"/>
-        <v>-2.7267272999999999</v>
+        <v>-2.4788429999999995</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" si="11"/>
-        <v>-2.4785951157000001</v>
+        <v>-2.2532682869999996</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="11"/>
-        <v>-2.2530429601713005</v>
+        <v>-2.0482208728829998</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="11"/>
-        <v>-2.0480160507957126</v>
+        <v>-1.861832773450647</v>
       </c>
       <c r="L25" s="1">
-        <f t="shared" si="11"/>
-        <v>-1.8616465901733028</v>
+        <v>-1.692405991066638</v>
       </c>
       <c r="M25" s="1">
-        <f t="shared" si="11"/>
-        <v>-1.692236750467532</v>
+        <v>-1.5383970458795739</v>
       </c>
       <c r="N25" s="1">
-        <f t="shared" si="11"/>
-        <v>-1.5382432061749869</v>
+        <v>-1.3984029147045327</v>
       </c>
       <c r="O25" s="1">
-        <f t="shared" si="11"/>
-        <v>-1.3982630744130629</v>
+        <v>-1.2711482494664204</v>
       </c>
       <c r="P25" s="1">
-        <f t="shared" si="11"/>
-        <v>-1.2710211346414741</v>
+        <v>-1.1554737587649762</v>
       </c>
       <c r="Q25" s="1">
-        <f t="shared" si="11"/>
-        <v>-1.1553582113890999</v>
+        <v>-1.0503256467173632</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
@@ -6640,16 +6409,16 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
         <v>34</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>36</v>
-      </c>
-      <c r="F1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -6663,10 +6432,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
         <v>38</v>
-      </c>
-      <c r="E2" t="s">
-        <v>39</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -6683,10 +6452,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3">
         <v>1</v>

--- a/SensitivityAnalisys/CF_G_2023_3_NFIIUUP.xlsx
+++ b/SensitivityAnalisys/CF_G_2023_3_NFIIUUP.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F866C2-0979-4FBF-9B4E-850807AE4915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6F70DE-56D8-4ED0-8534-05B7C720CABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54300" yWindow="0" windowWidth="25800" windowHeight="20985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -622,40 +622,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>90</c:v>
+                  <c:v>82.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>72.899999999999991</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>65.61</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>59.048999999999999</c:v>
+                  <c:v>74.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66.825000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60.142500000000013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54.128250000000008</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>53.144100000000002</c:v>
+                  <c:v>48.71542500000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>47.829690000000006</c:v>
+                  <c:v>43.843882500000014</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43.046721000000005</c:v>
+                  <c:v>39.459494250000013</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>38.742048900000007</c:v>
+                  <c:v>35.513544825000011</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>34.867844010000006</c:v>
+                  <c:v>31.962190342500012</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>31.381059609000005</c:v>
+                  <c:v>28.765971308250009</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>28.242953648100009</c:v>
+                  <c:v>25.889374177425008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -756,40 +756,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-6</c:v>
+                  <c:v>-5.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-6</c:v>
+                  <c:v>-5.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-6</c:v>
+                  <c:v>-5.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-6</c:v>
+                  <c:v>-5.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-6</c:v>
+                  <c:v>-5.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-6</c:v>
+                  <c:v>-5.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-6</c:v>
+                  <c:v>-5.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-6</c:v>
+                  <c:v>-5.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-6</c:v>
+                  <c:v>-5.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -890,40 +890,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-1.488</c:v>
+                  <c:v>-1.3640000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.488</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-1.488</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-1.488</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1.488</c:v>
+                  <c:v>-1.3640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.3640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.3640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.3640000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.488</c:v>
+                  <c:v>-1.3640000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.488</c:v>
+                  <c:v>-1.3640000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.488</c:v>
+                  <c:v>-1.3640000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.488</c:v>
+                  <c:v>-1.3640000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.488</c:v>
+                  <c:v>-1.3640000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.488</c:v>
+                  <c:v>-1.3640000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.488</c:v>
+                  <c:v>-1.3640000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1024,40 +1024,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-64.8</c:v>
+                  <c:v>-59.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-58.903199999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-53.543008799999988</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-48.670594999199999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-44.241570854272801</c:v>
+                  <c:v>-53.994600000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-49.081091399999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-44.614712082600008</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-40.554773283083406</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-40.215587906533976</c:v>
+                  <c:v>-36.86428891432282</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-36.555969407039385</c:v>
+                  <c:v>-33.509638623119443</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-33.229376190998799</c:v>
+                  <c:v>-30.46026150841557</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-30.205502957617909</c:v>
+                  <c:v>-27.688377711149755</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-27.456802188474686</c:v>
+                  <c:v>-25.168735339435131</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-24.95823318932349</c:v>
+                  <c:v>-22.878380423546535</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-22.687033969095051</c:v>
+                  <c:v>-20.796447805003801</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1155,40 +1155,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-10</c:v>
+                  <c:v>-11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-9.9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-9.8010000000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-9.7029899999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-9.605960099999999</c:v>
+                  <c:v>-10.89</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-10.7811</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-10.673289</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-10.566556110000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-9.5099004989999987</c:v>
+                  <c:v>-10.4608905489</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-9.414801494009998</c:v>
+                  <c:v>-10.356281643410998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-9.3206534790698985</c:v>
+                  <c:v>-10.252718826976889</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-9.2274469442791993</c:v>
+                  <c:v>-10.15019163870712</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-9.1351724748364074</c:v>
+                  <c:v>-10.048689722320049</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-9.0438207500880434</c:v>
+                  <c:v>-9.9482028250968479</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-8.9533825425871623</c:v>
+                  <c:v>-9.8487207968458801</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1286,40 +1286,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-3</c:v>
+                  <c:v>-3.3000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.7269999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-2.4788429999999995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-2.2532682869999996</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-2.0482208728829998</c:v>
+                  <c:v>-2.9997000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.7267272999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.4785951156999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.2530429601713</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.861832773450647</c:v>
+                  <c:v>-2.0480160507957117</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.692405991066638</c:v>
+                  <c:v>-1.8616465901733019</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.5383970458795739</c:v>
+                  <c:v>-1.6922367504675315</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.3984029147045327</c:v>
+                  <c:v>-1.538243206174986</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.2711482494664204</c:v>
+                  <c:v>-1.3982630744130624</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.1554737587649762</c:v>
+                  <c:v>-1.2710211346414739</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.0503256467173632</c:v>
+                  <c:v>-1.1553582113890997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1422,40 +1422,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>93.6</c:v>
+                  <c:v>85.800000000000011</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>88.919999999999987</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>84.47399999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>80.250299999999996</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>76.237784999999988</c:v>
+                  <c:v>81.510000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77.4345</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>73.562775000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69.88463625</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>72.425895749999981</c:v>
+                  <c:v>66.390404437499996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>68.80460096249999</c:v>
+                  <c:v>63.070884215624993</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>65.364370914374987</c:v>
+                  <c:v>59.917340004843737</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>62.096152368656234</c:v>
+                  <c:v>56.921473004601552</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>58.991344750223412</c:v>
+                  <c:v>54.07539935437147</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>56.041777512712244</c:v>
+                  <c:v>51.371629386652899</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>53.239688637076632</c:v>
+                  <c:v>48.803047917320249</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1558,40 +1558,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-6</c:v>
+                  <c:v>-5.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-6</c:v>
+                  <c:v>-5.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-6</c:v>
+                  <c:v>-5.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-6</c:v>
+                  <c:v>-5.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-6</c:v>
+                  <c:v>-5.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-6</c:v>
+                  <c:v>-5.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-6</c:v>
+                  <c:v>-5.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-6</c:v>
+                  <c:v>-5.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-6</c:v>
+                  <c:v>-5.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1694,40 +1694,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-1.488</c:v>
+                  <c:v>-1.3640000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.488</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-1.488</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-1.488</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1.488</c:v>
+                  <c:v>-1.3640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.3640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.3640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.3640000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.488</c:v>
+                  <c:v>-1.3640000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.488</c:v>
+                  <c:v>-1.3640000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.488</c:v>
+                  <c:v>-1.3640000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.488</c:v>
+                  <c:v>-1.3640000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.488</c:v>
+                  <c:v>-1.3640000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.488</c:v>
+                  <c:v>-1.3640000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.488</c:v>
+                  <c:v>-1.3640000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1830,40 +1830,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-72</c:v>
+                  <c:v>-66</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-65.447999999999993</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-59.492231999999994</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-54.078438888000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-49.157300949192006</c:v>
+                  <c:v>-59.994000000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-54.534545999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-49.571902314000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-45.060859203426013</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-44.683986562815534</c:v>
+                  <c:v>-40.960321015914239</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-40.617743785599316</c:v>
+                  <c:v>-37.232931803466045</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-36.921529101109776</c:v>
+                  <c:v>-33.844735009350629</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-33.561669952908794</c:v>
+                  <c:v>-30.764864123499727</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-30.507557987194094</c:v>
+                  <c:v>-27.965261488261255</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-27.731370210359433</c:v>
+                  <c:v>-25.420422692829483</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-25.207815521216723</c:v>
+                  <c:v>-23.107164227782</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1963,40 +1963,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-10</c:v>
+                  <c:v>-11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-9.9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-9.8010000000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-9.7029899999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-9.605960099999999</c:v>
+                  <c:v>-10.89</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-10.7811</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-10.673289</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-10.566556110000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-9.5099004989999987</c:v>
+                  <c:v>-10.4608905489</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-9.414801494009998</c:v>
+                  <c:v>-10.356281643410998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-9.3206534790698985</c:v>
+                  <c:v>-10.252718826976889</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-9.2274469442791993</c:v>
+                  <c:v>-10.15019163870712</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-9.1351724748364074</c:v>
+                  <c:v>-10.048689722320049</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-9.0438207500880434</c:v>
+                  <c:v>-9.9482028250968479</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-8.9533825425871623</c:v>
+                  <c:v>-9.8487207968458801</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2096,40 +2096,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-3</c:v>
+                  <c:v>-3.3000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.7269999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-2.4788429999999995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-2.2532682869999996</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-2.0482208728829998</c:v>
+                  <c:v>-2.9997000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.7267272999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.4785951156999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.2530429601713</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.861832773450647</c:v>
+                  <c:v>-2.0480160507957117</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.692405991066638</c:v>
+                  <c:v>-1.8616465901733019</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.5383970458795739</c:v>
+                  <c:v>-1.6922367504675315</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.3984029147045327</c:v>
+                  <c:v>-1.538243206174986</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.2711482494664204</c:v>
+                  <c:v>-1.3982630744130624</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.1554737587649762</c:v>
+                  <c:v>-1.2710211346414739</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.0503256467173632</c:v>
+                  <c:v>-1.1553582113890997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2233,40 +2233,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>96</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>91.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>86.64</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>82.308000000000007</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>78.192599999999999</c:v>
+                  <c:v>83.600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79.420000000000016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75.449000000000012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>71.676550000000006</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>74.282969999999992</c:v>
+                  <c:v>68.092722499999994</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70.568821499999999</c:v>
+                  <c:v>64.688086374999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>67.040380424999995</c:v>
+                  <c:v>61.453682056250003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>63.688361403749987</c:v>
+                  <c:v>58.380997953437493</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>60.503943333562482</c:v>
+                  <c:v>55.461948055765617</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>57.478746166884363</c:v>
+                  <c:v>52.688850652977337</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>54.604808858540139</c:v>
+                  <c:v>50.054408120328468</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2370,40 +2370,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-6</c:v>
+                  <c:v>-5.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-6</c:v>
+                  <c:v>-5.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-6</c:v>
+                  <c:v>-5.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-6</c:v>
+                  <c:v>-5.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-6</c:v>
+                  <c:v>-5.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-6</c:v>
+                  <c:v>-5.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-6</c:v>
+                  <c:v>-5.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-6</c:v>
+                  <c:v>-5.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-6</c:v>
+                  <c:v>-5.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2507,40 +2507,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-1.488</c:v>
+                  <c:v>-1.3640000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.488</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-1.488</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-1.488</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1.488</c:v>
+                  <c:v>-1.3640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.3640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.3640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.3640000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.488</c:v>
+                  <c:v>-1.3640000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.488</c:v>
+                  <c:v>-1.3640000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.488</c:v>
+                  <c:v>-1.3640000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.488</c:v>
+                  <c:v>-1.3640000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.488</c:v>
+                  <c:v>-1.3640000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.488</c:v>
+                  <c:v>-1.3640000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.488</c:v>
+                  <c:v>-1.3640000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2644,40 +2644,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-76.679999999999993</c:v>
+                  <c:v>-70.290000000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-69.702119999999994</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-63.359227079999989</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-57.59353741572</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-52.352525510889485</c:v>
+                  <c:v>-63.893610000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-58.079291489999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-52.794075964410005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-47.989815051648698</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-47.58844568939854</c:v>
+                  <c:v>-43.62274188194867</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-43.257897131663277</c:v>
+                  <c:v>-39.653072370691341</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-39.32142849268191</c:v>
+                  <c:v>-36.044642784958427</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-35.743178499847865</c:v>
+                  <c:v>-32.76458029152721</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-32.49054925636171</c:v>
+                  <c:v>-29.783003484998236</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-29.533909274032794</c:v>
+                  <c:v>-27.072750167863397</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-26.846323530095813</c:v>
+                  <c:v>-24.609129902587828</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2778,40 +2778,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-10</c:v>
+                  <c:v>-11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-9.9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-9.8010000000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-9.7029899999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-9.605960099999999</c:v>
+                  <c:v>-10.89</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-10.7811</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-10.673289</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-10.566556110000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-9.5099004989999987</c:v>
+                  <c:v>-10.4608905489</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-9.414801494009998</c:v>
+                  <c:v>-10.356281643410998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-9.3206534790698985</c:v>
+                  <c:v>-10.252718826976889</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-9.2274469442791993</c:v>
+                  <c:v>-10.15019163870712</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-9.1351724748364074</c:v>
+                  <c:v>-10.048689722320049</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-9.0438207500880434</c:v>
+                  <c:v>-9.9482028250968479</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-8.9533825425871623</c:v>
+                  <c:v>-9.8487207968458801</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2912,40 +2912,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-3</c:v>
+                  <c:v>-3.3000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.7269999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-2.4788429999999995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-2.2532682869999996</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-2.0482208728829998</c:v>
+                  <c:v>-2.9997000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.7267272999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.4785951156999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.2530429601713</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.861832773450647</c:v>
+                  <c:v>-2.0480160507957117</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.692405991066638</c:v>
+                  <c:v>-1.8616465901733019</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.5383970458795739</c:v>
+                  <c:v>-1.6922367504675315</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.3984029147045327</c:v>
+                  <c:v>-1.538243206174986</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.2711482494664204</c:v>
+                  <c:v>-1.3982630744130624</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.1554737587649762</c:v>
+                  <c:v>-1.2710211346414739</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.0503256467173632</c:v>
+                  <c:v>-1.1553582113890997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3048,40 +3048,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>98.759999999999991</c:v>
+                  <c:v>90.53</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>93.822000000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>89.130899999999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>84.674354999999991</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>80.440637249999995</c:v>
+                  <c:v>86.003500000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81.703325000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77.618158749999992</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>73.737250812499994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>76.41860538749998</c:v>
+                  <c:v>70.050388271874994</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>72.597675118124982</c:v>
+                  <c:v>66.547868858281234</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>68.967791362218733</c:v>
+                  <c:v>63.220475415367176</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>65.519401794107793</c:v>
+                  <c:v>60.059451644598823</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>62.243431704402404</c:v>
+                  <c:v>57.056479062368879</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>59.131260119182286</c:v>
+                  <c:v>54.203655109250434</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>56.174697113223161</c:v>
+                  <c:v>51.493472353787901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3184,40 +3184,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-24</c:v>
+                  <c:v>-22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-24</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-24</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-24</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-24</c:v>
+                  <c:v>-22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-24</c:v>
+                  <c:v>-22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-24</c:v>
+                  <c:v>-22</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-24</c:v>
+                  <c:v>-22</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-24</c:v>
+                  <c:v>-22</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-24</c:v>
+                  <c:v>-22</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-24</c:v>
+                  <c:v>-22</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-24</c:v>
+                  <c:v>-22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3320,40 +3320,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-1.488</c:v>
+                  <c:v>-1.3640000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.488</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-1.488</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-1.488</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1.488</c:v>
+                  <c:v>-1.3640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.3640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.3640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.3640000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.488</c:v>
+                  <c:v>-1.3640000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.488</c:v>
+                  <c:v>-1.3640000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.488</c:v>
+                  <c:v>-1.3640000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.488</c:v>
+                  <c:v>-1.3640000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.488</c:v>
+                  <c:v>-1.3640000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.488</c:v>
+                  <c:v>-1.3640000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.488</c:v>
+                  <c:v>-1.3640000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3456,40 +3456,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-76.679999999999993</c:v>
+                  <c:v>-70.290000000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-69.702119999999994</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-63.359227079999989</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-57.59353741572</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-52.352525510889485</c:v>
+                  <c:v>-63.893610000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-58.079291489999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-52.794075964410005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-47.989815051648698</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-47.58844568939854</c:v>
+                  <c:v>-43.62274188194867</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-43.257897131663277</c:v>
+                  <c:v>-39.653072370691341</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-39.32142849268191</c:v>
+                  <c:v>-36.044642784958427</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-35.743178499847865</c:v>
+                  <c:v>-32.76458029152721</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-32.49054925636171</c:v>
+                  <c:v>-29.783003484998236</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-29.533909274032794</c:v>
+                  <c:v>-27.072750167863397</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-26.846323530095816</c:v>
+                  <c:v>-24.609129902587835</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3589,40 +3589,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-10</c:v>
+                  <c:v>-11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-9.9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-9.8010000000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-9.7029899999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-9.605960099999999</c:v>
+                  <c:v>-10.89</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-10.7811</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-10.673289</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-10.566556110000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-9.5099004989999987</c:v>
+                  <c:v>-10.4608905489</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-9.414801494009998</c:v>
+                  <c:v>-10.356281643410998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-9.3206534790698985</c:v>
+                  <c:v>-10.252718826976889</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-9.2274469442791993</c:v>
+                  <c:v>-10.15019163870712</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-9.1351724748364074</c:v>
+                  <c:v>-10.048689722320049</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-9.0438207500880434</c:v>
+                  <c:v>-9.9482028250968479</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-8.9533825425871623</c:v>
+                  <c:v>-9.8487207968458801</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3722,40 +3722,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-3</c:v>
+                  <c:v>-3.3000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.7269999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-2.4788429999999995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-2.2532682869999996</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-2.0482208728829998</c:v>
+                  <c:v>-2.9997000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.7267272999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.4785951156999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.2530429601713</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.861832773450647</c:v>
+                  <c:v>-2.0480160507957117</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.692405991066638</c:v>
+                  <c:v>-1.8616465901733019</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.5383970458795739</c:v>
+                  <c:v>-1.6922367504675315</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.3984029147045327</c:v>
+                  <c:v>-1.538243206174986</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.2711482494664204</c:v>
+                  <c:v>-1.3982630744130624</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.1554737587649762</c:v>
+                  <c:v>-1.2710211346414739</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.0503256467173632</c:v>
+                  <c:v>-1.1553582113890997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4964,7 +4964,7 @@
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5046,40 +5046,40 @@
         <v>24</v>
       </c>
       <c r="F2" s="1">
-        <v>90</v>
+        <v>82.5</v>
       </c>
       <c r="G2" s="1">
-        <v>81</v>
+        <v>74.25</v>
       </c>
       <c r="H2" s="1">
-        <v>72.899999999999991</v>
+        <v>66.825000000000003</v>
       </c>
       <c r="I2" s="1">
-        <v>65.61</v>
+        <v>60.142500000000013</v>
       </c>
       <c r="J2" s="1">
-        <v>59.048999999999999</v>
+        <v>54.128250000000008</v>
       </c>
       <c r="K2" s="1">
-        <v>53.144100000000002</v>
+        <v>48.71542500000001</v>
       </c>
       <c r="L2" s="1">
-        <v>47.829690000000006</v>
+        <v>43.843882500000014</v>
       </c>
       <c r="M2" s="1">
-        <v>43.046721000000005</v>
+        <v>39.459494250000013</v>
       </c>
       <c r="N2" s="1">
-        <v>38.742048900000007</v>
+        <v>35.513544825000011</v>
       </c>
       <c r="O2" s="1">
-        <v>34.867844010000006</v>
+        <v>31.962190342500012</v>
       </c>
       <c r="P2" s="1">
-        <v>31.381059609000005</v>
+        <v>28.765971308250009</v>
       </c>
       <c r="Q2" s="1">
-        <v>28.242953648100009</v>
+        <v>25.889374177425008</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -5099,40 +5099,40 @@
         <v>24</v>
       </c>
       <c r="F3" s="1">
-        <v>-6</v>
+        <v>-5.5</v>
       </c>
       <c r="G3" s="1">
-        <v>-6</v>
+        <v>-5.5</v>
       </c>
       <c r="H3" s="1">
-        <v>-6</v>
+        <v>-5.5</v>
       </c>
       <c r="I3" s="1">
-        <v>-6</v>
+        <v>-5.5</v>
       </c>
       <c r="J3" s="1">
-        <v>-6</v>
+        <v>-5.5</v>
       </c>
       <c r="K3" s="1">
-        <v>-6</v>
+        <v>-5.5</v>
       </c>
       <c r="L3" s="1">
-        <v>-6</v>
+        <v>-5.5</v>
       </c>
       <c r="M3" s="1">
-        <v>-6</v>
+        <v>-5.5</v>
       </c>
       <c r="N3" s="1">
-        <v>-6</v>
+        <v>-5.5</v>
       </c>
       <c r="O3" s="1">
-        <v>-6</v>
+        <v>-5.5</v>
       </c>
       <c r="P3" s="1">
-        <v>-6</v>
+        <v>-5.5</v>
       </c>
       <c r="Q3" s="1">
-        <v>-6</v>
+        <v>-5.5</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -5152,40 +5152,40 @@
         <v>24</v>
       </c>
       <c r="F4" s="1">
-        <v>-1.488</v>
+        <v>-1.3640000000000001</v>
       </c>
       <c r="G4" s="1">
-        <v>-1.488</v>
+        <v>-1.3640000000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>-1.488</v>
+        <v>-1.3640000000000001</v>
       </c>
       <c r="I4" s="1">
-        <v>-1.488</v>
+        <v>-1.3640000000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>-1.488</v>
+        <v>-1.3640000000000001</v>
       </c>
       <c r="K4" s="1">
-        <v>-1.488</v>
+        <v>-1.3640000000000001</v>
       </c>
       <c r="L4" s="1">
-        <v>-1.488</v>
+        <v>-1.3640000000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>-1.488</v>
+        <v>-1.3640000000000001</v>
       </c>
       <c r="N4" s="1">
-        <v>-1.488</v>
+        <v>-1.3640000000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>-1.488</v>
+        <v>-1.3640000000000001</v>
       </c>
       <c r="P4" s="1">
-        <v>-1.488</v>
+        <v>-1.3640000000000001</v>
       </c>
       <c r="Q4" s="1">
-        <v>-1.488</v>
+        <v>-1.3640000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -5205,40 +5205,40 @@
         <v>24</v>
       </c>
       <c r="F5" s="1">
-        <v>-64.8</v>
+        <v>-59.400000000000006</v>
       </c>
       <c r="G5" s="1">
-        <v>-58.903199999999998</v>
+        <v>-53.994600000000005</v>
       </c>
       <c r="H5" s="1">
-        <v>-53.543008799999988</v>
+        <v>-49.081091399999998</v>
       </c>
       <c r="I5" s="1">
-        <v>-48.670594999199999</v>
+        <v>-44.614712082600008</v>
       </c>
       <c r="J5" s="1">
-        <v>-44.241570854272801</v>
+        <v>-40.554773283083406</v>
       </c>
       <c r="K5" s="1">
-        <v>-40.215587906533976</v>
+        <v>-36.86428891432282</v>
       </c>
       <c r="L5" s="1">
-        <v>-36.555969407039385</v>
+        <v>-33.509638623119443</v>
       </c>
       <c r="M5" s="1">
-        <v>-33.229376190998799</v>
+        <v>-30.46026150841557</v>
       </c>
       <c r="N5" s="1">
-        <v>-30.205502957617909</v>
+        <v>-27.688377711149755</v>
       </c>
       <c r="O5" s="1">
-        <v>-27.456802188474686</v>
+        <v>-25.168735339435131</v>
       </c>
       <c r="P5" s="1">
-        <v>-24.95823318932349</v>
+        <v>-22.878380423546535</v>
       </c>
       <c r="Q5" s="1">
-        <v>-22.687033969095051</v>
+        <v>-20.796447805003801</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -5255,40 +5255,40 @@
         <v>24</v>
       </c>
       <c r="F6" s="1">
-        <v>-10</v>
+        <v>-11</v>
       </c>
       <c r="G6" s="1">
-        <v>-9.9</v>
+        <v>-10.89</v>
       </c>
       <c r="H6" s="1">
-        <v>-9.8010000000000002</v>
+        <v>-10.7811</v>
       </c>
       <c r="I6" s="1">
-        <v>-9.7029899999999998</v>
+        <v>-10.673289</v>
       </c>
       <c r="J6" s="1">
-        <v>-9.605960099999999</v>
+        <v>-10.566556110000001</v>
       </c>
       <c r="K6" s="1">
-        <v>-9.5099004989999987</v>
+        <v>-10.4608905489</v>
       </c>
       <c r="L6" s="1">
-        <v>-9.414801494009998</v>
+        <v>-10.356281643410998</v>
       </c>
       <c r="M6" s="1">
-        <v>-9.3206534790698985</v>
+        <v>-10.252718826976889</v>
       </c>
       <c r="N6" s="1">
-        <v>-9.2274469442791993</v>
+        <v>-10.15019163870712</v>
       </c>
       <c r="O6" s="1">
-        <v>-9.1351724748364074</v>
+        <v>-10.048689722320049</v>
       </c>
       <c r="P6" s="1">
-        <v>-9.0438207500880434</v>
+        <v>-9.9482028250968479</v>
       </c>
       <c r="Q6" s="1">
-        <v>-8.9533825425871623</v>
+        <v>-9.8487207968458801</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -5305,40 +5305,40 @@
         <v>24</v>
       </c>
       <c r="F7" s="1">
-        <v>-3</v>
+        <v>-3.3000000000000003</v>
       </c>
       <c r="G7" s="1">
-        <v>-2.7269999999999999</v>
+        <v>-2.9997000000000003</v>
       </c>
       <c r="H7" s="1">
-        <v>-2.4788429999999995</v>
+        <v>-2.7267272999999994</v>
       </c>
       <c r="I7" s="1">
-        <v>-2.2532682869999996</v>
+        <v>-2.4785951156999997</v>
       </c>
       <c r="J7" s="1">
-        <v>-2.0482208728829998</v>
+        <v>-2.2530429601713</v>
       </c>
       <c r="K7" s="1">
-        <v>-1.861832773450647</v>
+        <v>-2.0480160507957117</v>
       </c>
       <c r="L7" s="1">
-        <v>-1.692405991066638</v>
+        <v>-1.8616465901733019</v>
       </c>
       <c r="M7" s="1">
-        <v>-1.5383970458795739</v>
+        <v>-1.6922367504675315</v>
       </c>
       <c r="N7" s="1">
-        <v>-1.3984029147045327</v>
+        <v>-1.538243206174986</v>
       </c>
       <c r="O7" s="1">
-        <v>-1.2711482494664204</v>
+        <v>-1.3982630744130624</v>
       </c>
       <c r="P7" s="1">
-        <v>-1.1554737587649762</v>
+        <v>-1.2710211346414739</v>
       </c>
       <c r="Q7" s="1">
-        <v>-1.0503256467173632</v>
+        <v>-1.1553582113890997</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -5358,40 +5358,40 @@
         <v>24</v>
       </c>
       <c r="F8" s="1">
-        <v>93.6</v>
+        <v>85.800000000000011</v>
       </c>
       <c r="G8" s="1">
-        <v>88.919999999999987</v>
+        <v>81.510000000000005</v>
       </c>
       <c r="H8" s="1">
-        <v>84.47399999999999</v>
+        <v>77.4345</v>
       </c>
       <c r="I8" s="1">
-        <v>80.250299999999996</v>
+        <v>73.562775000000002</v>
       </c>
       <c r="J8" s="1">
-        <v>76.237784999999988</v>
+        <v>69.88463625</v>
       </c>
       <c r="K8" s="1">
-        <v>72.425895749999981</v>
+        <v>66.390404437499996</v>
       </c>
       <c r="L8" s="1">
-        <v>68.80460096249999</v>
+        <v>63.070884215624993</v>
       </c>
       <c r="M8" s="1">
-        <v>65.364370914374987</v>
+        <v>59.917340004843737</v>
       </c>
       <c r="N8" s="1">
-        <v>62.096152368656234</v>
+        <v>56.921473004601552</v>
       </c>
       <c r="O8" s="1">
-        <v>58.991344750223412</v>
+        <v>54.07539935437147</v>
       </c>
       <c r="P8" s="1">
-        <v>56.041777512712244</v>
+        <v>51.371629386652899</v>
       </c>
       <c r="Q8" s="1">
-        <v>53.239688637076632</v>
+        <v>48.803047917320249</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -5411,40 +5411,40 @@
         <v>24</v>
       </c>
       <c r="F9" s="1">
-        <v>-6</v>
+        <v>-5.5</v>
       </c>
       <c r="G9" s="1">
-        <v>-6</v>
+        <v>-5.5</v>
       </c>
       <c r="H9" s="1">
-        <v>-6</v>
+        <v>-5.5</v>
       </c>
       <c r="I9" s="1">
-        <v>-6</v>
+        <v>-5.5</v>
       </c>
       <c r="J9" s="1">
-        <v>-6</v>
+        <v>-5.5</v>
       </c>
       <c r="K9" s="1">
-        <v>-6</v>
+        <v>-5.5</v>
       </c>
       <c r="L9" s="1">
-        <v>-6</v>
+        <v>-5.5</v>
       </c>
       <c r="M9" s="1">
-        <v>-6</v>
+        <v>-5.5</v>
       </c>
       <c r="N9" s="1">
-        <v>-6</v>
+        <v>-5.5</v>
       </c>
       <c r="O9" s="1">
-        <v>-6</v>
+        <v>-5.5</v>
       </c>
       <c r="P9" s="1">
-        <v>-6</v>
+        <v>-5.5</v>
       </c>
       <c r="Q9" s="1">
-        <v>-6</v>
+        <v>-5.5</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -5464,40 +5464,40 @@
         <v>24</v>
       </c>
       <c r="F10" s="1">
-        <v>-1.488</v>
+        <v>-1.3640000000000001</v>
       </c>
       <c r="G10" s="1">
-        <v>-1.488</v>
+        <v>-1.3640000000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>-1.488</v>
+        <v>-1.3640000000000001</v>
       </c>
       <c r="I10" s="1">
-        <v>-1.488</v>
+        <v>-1.3640000000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>-1.488</v>
+        <v>-1.3640000000000001</v>
       </c>
       <c r="K10" s="1">
-        <v>-1.488</v>
+        <v>-1.3640000000000001</v>
       </c>
       <c r="L10" s="1">
-        <v>-1.488</v>
+        <v>-1.3640000000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>-1.488</v>
+        <v>-1.3640000000000001</v>
       </c>
       <c r="N10" s="1">
-        <v>-1.488</v>
+        <v>-1.3640000000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>-1.488</v>
+        <v>-1.3640000000000001</v>
       </c>
       <c r="P10" s="1">
-        <v>-1.488</v>
+        <v>-1.3640000000000001</v>
       </c>
       <c r="Q10" s="1">
-        <v>-1.488</v>
+        <v>-1.3640000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -5517,40 +5517,40 @@
         <v>24</v>
       </c>
       <c r="F11" s="1">
-        <v>-72</v>
+        <v>-66</v>
       </c>
       <c r="G11" s="1">
-        <v>-65.447999999999993</v>
+        <v>-59.994000000000007</v>
       </c>
       <c r="H11" s="1">
-        <v>-59.492231999999994</v>
+        <v>-54.534545999999999</v>
       </c>
       <c r="I11" s="1">
-        <v>-54.078438888000001</v>
+        <v>-49.571902314000006</v>
       </c>
       <c r="J11" s="1">
-        <v>-49.157300949192006</v>
+        <v>-45.060859203426013</v>
       </c>
       <c r="K11" s="1">
-        <v>-44.683986562815534</v>
+        <v>-40.960321015914239</v>
       </c>
       <c r="L11" s="1">
-        <v>-40.617743785599316</v>
+        <v>-37.232931803466045</v>
       </c>
       <c r="M11" s="1">
-        <v>-36.921529101109776</v>
+        <v>-33.844735009350629</v>
       </c>
       <c r="N11" s="1">
-        <v>-33.561669952908794</v>
+        <v>-30.764864123499727</v>
       </c>
       <c r="O11" s="1">
-        <v>-30.507557987194094</v>
+        <v>-27.965261488261255</v>
       </c>
       <c r="P11" s="1">
-        <v>-27.731370210359433</v>
+        <v>-25.420422692829483</v>
       </c>
       <c r="Q11" s="1">
-        <v>-25.207815521216723</v>
+        <v>-23.107164227782</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -5567,40 +5567,40 @@
         <v>24</v>
       </c>
       <c r="F12" s="1">
-        <v>-10</v>
+        <v>-11</v>
       </c>
       <c r="G12" s="1">
-        <v>-9.9</v>
+        <v>-10.89</v>
       </c>
       <c r="H12" s="1">
-        <v>-9.8010000000000002</v>
+        <v>-10.7811</v>
       </c>
       <c r="I12" s="1">
-        <v>-9.7029899999999998</v>
+        <v>-10.673289</v>
       </c>
       <c r="J12" s="1">
-        <v>-9.605960099999999</v>
+        <v>-10.566556110000001</v>
       </c>
       <c r="K12" s="1">
-        <v>-9.5099004989999987</v>
+        <v>-10.4608905489</v>
       </c>
       <c r="L12" s="1">
-        <v>-9.414801494009998</v>
+        <v>-10.356281643410998</v>
       </c>
       <c r="M12" s="1">
-        <v>-9.3206534790698985</v>
+        <v>-10.252718826976889</v>
       </c>
       <c r="N12" s="1">
-        <v>-9.2274469442791993</v>
+        <v>-10.15019163870712</v>
       </c>
       <c r="O12" s="1">
-        <v>-9.1351724748364074</v>
+        <v>-10.048689722320049</v>
       </c>
       <c r="P12" s="1">
-        <v>-9.0438207500880434</v>
+        <v>-9.9482028250968479</v>
       </c>
       <c r="Q12" s="1">
-        <v>-8.9533825425871623</v>
+        <v>-9.8487207968458801</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -5617,40 +5617,40 @@
         <v>24</v>
       </c>
       <c r="F13" s="1">
-        <v>-3</v>
+        <v>-3.3000000000000003</v>
       </c>
       <c r="G13" s="1">
-        <v>-2.7269999999999999</v>
+        <v>-2.9997000000000003</v>
       </c>
       <c r="H13" s="1">
-        <v>-2.4788429999999995</v>
+        <v>-2.7267272999999994</v>
       </c>
       <c r="I13" s="1">
-        <v>-2.2532682869999996</v>
+        <v>-2.4785951156999997</v>
       </c>
       <c r="J13" s="1">
-        <v>-2.0482208728829998</v>
+        <v>-2.2530429601713</v>
       </c>
       <c r="K13" s="1">
-        <v>-1.861832773450647</v>
+        <v>-2.0480160507957117</v>
       </c>
       <c r="L13" s="1">
-        <v>-1.692405991066638</v>
+        <v>-1.8616465901733019</v>
       </c>
       <c r="M13" s="1">
-        <v>-1.5383970458795739</v>
+        <v>-1.6922367504675315</v>
       </c>
       <c r="N13" s="1">
-        <v>-1.3984029147045327</v>
+        <v>-1.538243206174986</v>
       </c>
       <c r="O13" s="1">
-        <v>-1.2711482494664204</v>
+        <v>-1.3982630744130624</v>
       </c>
       <c r="P13" s="1">
-        <v>-1.1554737587649762</v>
+        <v>-1.2710211346414739</v>
       </c>
       <c r="Q13" s="1">
-        <v>-1.0503256467173632</v>
+        <v>-1.1553582113890997</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -5670,40 +5670,40 @@
         <v>24</v>
       </c>
       <c r="F14" s="1">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="G14" s="2">
-        <v>91.2</v>
+        <v>83.600000000000009</v>
       </c>
       <c r="H14" s="2">
-        <v>86.64</v>
+        <v>79.420000000000016</v>
       </c>
       <c r="I14" s="2">
-        <v>82.308000000000007</v>
+        <v>75.449000000000012</v>
       </c>
       <c r="J14" s="2">
-        <v>78.192599999999999</v>
+        <v>71.676550000000006</v>
       </c>
       <c r="K14" s="2">
-        <v>74.282969999999992</v>
+        <v>68.092722499999994</v>
       </c>
       <c r="L14" s="2">
-        <v>70.568821499999999</v>
+        <v>64.688086374999997</v>
       </c>
       <c r="M14" s="2">
-        <v>67.040380424999995</v>
+        <v>61.453682056250003</v>
       </c>
       <c r="N14" s="2">
-        <v>63.688361403749987</v>
+        <v>58.380997953437493</v>
       </c>
       <c r="O14" s="2">
-        <v>60.503943333562482</v>
+        <v>55.461948055765617</v>
       </c>
       <c r="P14" s="2">
-        <v>57.478746166884363</v>
+        <v>52.688850652977337</v>
       </c>
       <c r="Q14" s="2">
-        <v>54.604808858540139</v>
+        <v>50.054408120328468</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -5723,40 +5723,40 @@
         <v>24</v>
       </c>
       <c r="F15" s="1">
-        <v>-6</v>
+        <v>-5.5</v>
       </c>
       <c r="G15" s="1">
-        <v>-6</v>
+        <v>-5.5</v>
       </c>
       <c r="H15" s="1">
-        <v>-6</v>
+        <v>-5.5</v>
       </c>
       <c r="I15" s="1">
-        <v>-6</v>
+        <v>-5.5</v>
       </c>
       <c r="J15" s="1">
-        <v>-6</v>
+        <v>-5.5</v>
       </c>
       <c r="K15" s="1">
-        <v>-6</v>
+        <v>-5.5</v>
       </c>
       <c r="L15" s="1">
-        <v>-6</v>
+        <v>-5.5</v>
       </c>
       <c r="M15" s="1">
-        <v>-6</v>
+        <v>-5.5</v>
       </c>
       <c r="N15" s="1">
-        <v>-6</v>
+        <v>-5.5</v>
       </c>
       <c r="O15" s="1">
-        <v>-6</v>
+        <v>-5.5</v>
       </c>
       <c r="P15" s="1">
-        <v>-6</v>
+        <v>-5.5</v>
       </c>
       <c r="Q15" s="1">
-        <v>-6</v>
+        <v>-5.5</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -5776,40 +5776,40 @@
         <v>24</v>
       </c>
       <c r="F16" s="1">
-        <v>-1.488</v>
+        <v>-1.3640000000000001</v>
       </c>
       <c r="G16" s="1">
-        <v>-1.488</v>
+        <v>-1.3640000000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>-1.488</v>
+        <v>-1.3640000000000001</v>
       </c>
       <c r="I16" s="1">
-        <v>-1.488</v>
+        <v>-1.3640000000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>-1.488</v>
+        <v>-1.3640000000000001</v>
       </c>
       <c r="K16" s="1">
-        <v>-1.488</v>
+        <v>-1.3640000000000001</v>
       </c>
       <c r="L16" s="1">
-        <v>-1.488</v>
+        <v>-1.3640000000000001</v>
       </c>
       <c r="M16" s="1">
-        <v>-1.488</v>
+        <v>-1.3640000000000001</v>
       </c>
       <c r="N16" s="1">
-        <v>-1.488</v>
+        <v>-1.3640000000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>-1.488</v>
+        <v>-1.3640000000000001</v>
       </c>
       <c r="P16" s="1">
-        <v>-1.488</v>
+        <v>-1.3640000000000001</v>
       </c>
       <c r="Q16" s="1">
-        <v>-1.488</v>
+        <v>-1.3640000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -5829,40 +5829,40 @@
         <v>24</v>
       </c>
       <c r="F17" s="1">
-        <v>-76.679999999999993</v>
+        <v>-70.290000000000006</v>
       </c>
       <c r="G17" s="1">
-        <v>-69.702119999999994</v>
+        <v>-63.893610000000002</v>
       </c>
       <c r="H17" s="1">
-        <v>-63.359227079999989</v>
+        <v>-58.079291489999996</v>
       </c>
       <c r="I17" s="1">
-        <v>-57.59353741572</v>
+        <v>-52.794075964410005</v>
       </c>
       <c r="J17" s="1">
-        <v>-52.352525510889485</v>
+        <v>-47.989815051648698</v>
       </c>
       <c r="K17" s="1">
-        <v>-47.58844568939854</v>
+        <v>-43.62274188194867</v>
       </c>
       <c r="L17" s="1">
-        <v>-43.257897131663277</v>
+        <v>-39.653072370691341</v>
       </c>
       <c r="M17" s="1">
-        <v>-39.32142849268191</v>
+        <v>-36.044642784958427</v>
       </c>
       <c r="N17" s="1">
-        <v>-35.743178499847865</v>
+        <v>-32.76458029152721</v>
       </c>
       <c r="O17" s="1">
-        <v>-32.49054925636171</v>
+        <v>-29.783003484998236</v>
       </c>
       <c r="P17" s="1">
-        <v>-29.533909274032794</v>
+        <v>-27.072750167863397</v>
       </c>
       <c r="Q17" s="1">
-        <v>-26.846323530095813</v>
+        <v>-24.609129902587828</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -5879,40 +5879,40 @@
         <v>24</v>
       </c>
       <c r="F18" s="1">
-        <v>-10</v>
+        <v>-11</v>
       </c>
       <c r="G18" s="1">
-        <v>-9.9</v>
+        <v>-10.89</v>
       </c>
       <c r="H18" s="1">
-        <v>-9.8010000000000002</v>
+        <v>-10.7811</v>
       </c>
       <c r="I18" s="1">
-        <v>-9.7029899999999998</v>
+        <v>-10.673289</v>
       </c>
       <c r="J18" s="1">
-        <v>-9.605960099999999</v>
+        <v>-10.566556110000001</v>
       </c>
       <c r="K18" s="1">
-        <v>-9.5099004989999987</v>
+        <v>-10.4608905489</v>
       </c>
       <c r="L18" s="1">
-        <v>-9.414801494009998</v>
+        <v>-10.356281643410998</v>
       </c>
       <c r="M18" s="1">
-        <v>-9.3206534790698985</v>
+        <v>-10.252718826976889</v>
       </c>
       <c r="N18" s="1">
-        <v>-9.2274469442791993</v>
+        <v>-10.15019163870712</v>
       </c>
       <c r="O18" s="1">
-        <v>-9.1351724748364074</v>
+        <v>-10.048689722320049</v>
       </c>
       <c r="P18" s="1">
-        <v>-9.0438207500880434</v>
+        <v>-9.9482028250968479</v>
       </c>
       <c r="Q18" s="1">
-        <v>-8.9533825425871623</v>
+        <v>-9.8487207968458801</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -5929,40 +5929,40 @@
         <v>24</v>
       </c>
       <c r="F19" s="1">
-        <v>-3</v>
+        <v>-3.3000000000000003</v>
       </c>
       <c r="G19" s="1">
-        <v>-2.7269999999999999</v>
+        <v>-2.9997000000000003</v>
       </c>
       <c r="H19" s="1">
-        <v>-2.4788429999999995</v>
+        <v>-2.7267272999999994</v>
       </c>
       <c r="I19" s="1">
-        <v>-2.2532682869999996</v>
+        <v>-2.4785951156999997</v>
       </c>
       <c r="J19" s="1">
-        <v>-2.0482208728829998</v>
+        <v>-2.2530429601713</v>
       </c>
       <c r="K19" s="1">
-        <v>-1.861832773450647</v>
+        <v>-2.0480160507957117</v>
       </c>
       <c r="L19" s="1">
-        <v>-1.692405991066638</v>
+        <v>-1.8616465901733019</v>
       </c>
       <c r="M19" s="1">
-        <v>-1.5383970458795739</v>
+        <v>-1.6922367504675315</v>
       </c>
       <c r="N19" s="1">
-        <v>-1.3984029147045327</v>
+        <v>-1.538243206174986</v>
       </c>
       <c r="O19" s="1">
-        <v>-1.2711482494664204</v>
+        <v>-1.3982630744130624</v>
       </c>
       <c r="P19" s="1">
-        <v>-1.1554737587649762</v>
+        <v>-1.2710211346414739</v>
       </c>
       <c r="Q19" s="1">
-        <v>-1.0503256467173632</v>
+        <v>-1.1553582113890997</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
@@ -5982,40 +5982,40 @@
         <v>39</v>
       </c>
       <c r="F20" s="1">
-        <v>98.759999999999991</v>
+        <v>90.53</v>
       </c>
       <c r="G20" s="1">
-        <v>93.822000000000003</v>
+        <v>86.003500000000003</v>
       </c>
       <c r="H20" s="1">
-        <v>89.130899999999997</v>
+        <v>81.703325000000007</v>
       </c>
       <c r="I20" s="1">
-        <v>84.674354999999991</v>
+        <v>77.618158749999992</v>
       </c>
       <c r="J20" s="1">
-        <v>80.440637249999995</v>
+        <v>73.737250812499994</v>
       </c>
       <c r="K20" s="1">
-        <v>76.41860538749998</v>
+        <v>70.050388271874994</v>
       </c>
       <c r="L20" s="1">
-        <v>72.597675118124982</v>
+        <v>66.547868858281234</v>
       </c>
       <c r="M20" s="1">
-        <v>68.967791362218733</v>
+        <v>63.220475415367176</v>
       </c>
       <c r="N20" s="1">
-        <v>65.519401794107793</v>
+        <v>60.059451644598823</v>
       </c>
       <c r="O20" s="1">
-        <v>62.243431704402404</v>
+        <v>57.056479062368879</v>
       </c>
       <c r="P20" s="1">
-        <v>59.131260119182286</v>
+        <v>54.203655109250434</v>
       </c>
       <c r="Q20" s="1">
-        <v>56.174697113223161</v>
+        <v>51.493472353787901</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
@@ -6035,40 +6035,40 @@
         <v>39</v>
       </c>
       <c r="F21" s="1">
-        <v>-24</v>
+        <v>-22</v>
       </c>
       <c r="G21" s="1">
-        <v>-24</v>
+        <v>-22</v>
       </c>
       <c r="H21" s="1">
-        <v>-24</v>
+        <v>-22</v>
       </c>
       <c r="I21" s="1">
-        <v>-24</v>
+        <v>-22</v>
       </c>
       <c r="J21" s="1">
-        <v>-24</v>
+        <v>-22</v>
       </c>
       <c r="K21" s="1">
-        <v>-24</v>
+        <v>-22</v>
       </c>
       <c r="L21" s="1">
-        <v>-24</v>
+        <v>-22</v>
       </c>
       <c r="M21" s="1">
-        <v>-24</v>
+        <v>-22</v>
       </c>
       <c r="N21" s="1">
-        <v>-24</v>
+        <v>-22</v>
       </c>
       <c r="O21" s="1">
-        <v>-24</v>
+        <v>-22</v>
       </c>
       <c r="P21" s="1">
-        <v>-24</v>
+        <v>-22</v>
       </c>
       <c r="Q21" s="1">
-        <v>-24</v>
+        <v>-22</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
@@ -6088,40 +6088,40 @@
         <v>39</v>
       </c>
       <c r="F22" s="1">
-        <v>-1.488</v>
+        <v>-1.3640000000000001</v>
       </c>
       <c r="G22" s="1">
-        <v>-1.488</v>
+        <v>-1.3640000000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>-1.488</v>
+        <v>-1.3640000000000001</v>
       </c>
       <c r="I22" s="1">
-        <v>-1.488</v>
+        <v>-1.3640000000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>-1.488</v>
+        <v>-1.3640000000000001</v>
       </c>
       <c r="K22" s="1">
-        <v>-1.488</v>
+        <v>-1.3640000000000001</v>
       </c>
       <c r="L22" s="1">
-        <v>-1.488</v>
+        <v>-1.3640000000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>-1.488</v>
+        <v>-1.3640000000000001</v>
       </c>
       <c r="N22" s="1">
-        <v>-1.488</v>
+        <v>-1.3640000000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>-1.488</v>
+        <v>-1.3640000000000001</v>
       </c>
       <c r="P22" s="1">
-        <v>-1.488</v>
+        <v>-1.3640000000000001</v>
       </c>
       <c r="Q22" s="1">
-        <v>-1.488</v>
+        <v>-1.3640000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
@@ -6141,40 +6141,40 @@
         <v>39</v>
       </c>
       <c r="F23" s="1">
-        <v>-76.679999999999993</v>
+        <v>-70.290000000000006</v>
       </c>
       <c r="G23" s="1">
-        <v>-69.702119999999994</v>
+        <v>-63.893610000000002</v>
       </c>
       <c r="H23" s="1">
-        <v>-63.359227079999989</v>
+        <v>-58.079291489999996</v>
       </c>
       <c r="I23" s="1">
-        <v>-57.59353741572</v>
+        <v>-52.794075964410005</v>
       </c>
       <c r="J23" s="1">
-        <v>-52.352525510889485</v>
+        <v>-47.989815051648698</v>
       </c>
       <c r="K23" s="1">
-        <v>-47.58844568939854</v>
+        <v>-43.62274188194867</v>
       </c>
       <c r="L23" s="1">
-        <v>-43.257897131663277</v>
+        <v>-39.653072370691341</v>
       </c>
       <c r="M23" s="1">
-        <v>-39.32142849268191</v>
+        <v>-36.044642784958427</v>
       </c>
       <c r="N23" s="1">
-        <v>-35.743178499847865</v>
+        <v>-32.76458029152721</v>
       </c>
       <c r="O23" s="1">
-        <v>-32.49054925636171</v>
+        <v>-29.783003484998236</v>
       </c>
       <c r="P23" s="1">
-        <v>-29.533909274032794</v>
+        <v>-27.072750167863397</v>
       </c>
       <c r="Q23" s="1">
-        <v>-26.846323530095816</v>
+        <v>-24.609129902587835</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -6191,40 +6191,40 @@
         <v>39</v>
       </c>
       <c r="F24" s="1">
-        <v>-10</v>
+        <v>-11</v>
       </c>
       <c r="G24" s="1">
-        <v>-9.9</v>
+        <v>-10.89</v>
       </c>
       <c r="H24" s="1">
-        <v>-9.8010000000000002</v>
+        <v>-10.7811</v>
       </c>
       <c r="I24" s="1">
-        <v>-9.7029899999999998</v>
+        <v>-10.673289</v>
       </c>
       <c r="J24" s="1">
-        <v>-9.605960099999999</v>
+        <v>-10.566556110000001</v>
       </c>
       <c r="K24" s="1">
-        <v>-9.5099004989999987</v>
+        <v>-10.4608905489</v>
       </c>
       <c r="L24" s="1">
-        <v>-9.414801494009998</v>
+        <v>-10.356281643410998</v>
       </c>
       <c r="M24" s="1">
-        <v>-9.3206534790698985</v>
+        <v>-10.252718826976889</v>
       </c>
       <c r="N24" s="1">
-        <v>-9.2274469442791993</v>
+        <v>-10.15019163870712</v>
       </c>
       <c r="O24" s="1">
-        <v>-9.1351724748364074</v>
+        <v>-10.048689722320049</v>
       </c>
       <c r="P24" s="1">
-        <v>-9.0438207500880434</v>
+        <v>-9.9482028250968479</v>
       </c>
       <c r="Q24" s="1">
-        <v>-8.9533825425871623</v>
+        <v>-9.8487207968458801</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
@@ -6241,40 +6241,40 @@
         <v>39</v>
       </c>
       <c r="F25" s="1">
-        <v>-3</v>
+        <v>-3.3000000000000003</v>
       </c>
       <c r="G25" s="1">
-        <v>-2.7269999999999999</v>
+        <v>-2.9997000000000003</v>
       </c>
       <c r="H25" s="1">
-        <v>-2.4788429999999995</v>
+        <v>-2.7267272999999994</v>
       </c>
       <c r="I25" s="1">
-        <v>-2.2532682869999996</v>
+        <v>-2.4785951156999997</v>
       </c>
       <c r="J25" s="1">
-        <v>-2.0482208728829998</v>
+        <v>-2.2530429601713</v>
       </c>
       <c r="K25" s="1">
-        <v>-1.861832773450647</v>
+        <v>-2.0480160507957117</v>
       </c>
       <c r="L25" s="1">
-        <v>-1.692405991066638</v>
+        <v>-1.8616465901733019</v>
       </c>
       <c r="M25" s="1">
-        <v>-1.5383970458795739</v>
+        <v>-1.6922367504675315</v>
       </c>
       <c r="N25" s="1">
-        <v>-1.3984029147045327</v>
+        <v>-1.538243206174986</v>
       </c>
       <c r="O25" s="1">
-        <v>-1.2711482494664204</v>
+        <v>-1.3982630744130624</v>
       </c>
       <c r="P25" s="1">
-        <v>-1.1554737587649762</v>
+        <v>-1.2710211346414739</v>
       </c>
       <c r="Q25" s="1">
-        <v>-1.0503256467173632</v>
+        <v>-1.1553582113890997</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
